--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -1,34 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\htdocs\ci\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Report-CashFlow" sheetId="1" r:id="rId1"/>
     <sheet name="Report Others" sheetId="4" r:id="rId2"/>
     <sheet name="Account" sheetId="3" r:id="rId3"/>
     <sheet name="Add-DataEntry" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$B$69</definedName>
     <definedName name="CF_JFI">[1]Database!$D$3:$G$503</definedName>
     <definedName name="COA">[2]COA!$A$2:$A$139</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Report-CashFlow'!$B$2:$P$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report-CashFlow'!$B:$C</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="184">
   <si>
     <t>STATEMENT OF CASH FLOW</t>
   </si>
@@ -433,6 +440,153 @@
   </si>
   <si>
     <t>No.Doc other cash in/out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(v) bug, tampilan record info: ngga muncul create </t>
+  </si>
+  <si>
+    <t>SO:</t>
+  </si>
+  <si>
+    <t>(v) - ref_no &amp; ref_date dimunculkan &amp; dijadikan mandatory. untuk memasukkan no PO-nya customer</t>
+  </si>
+  <si>
+    <t>(v) - tambah field customer delivery date di header</t>
+  </si>
+  <si>
+    <t>shipment:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(v) - SO No jadikan mandatory, jika tdk ada SO harus buat SO nya dulu. </t>
+  </si>
+  <si>
+    <t>(v) - Customer di lock</t>
+  </si>
+  <si>
+    <t>(*) - shipment line, ditambah satu field is_complete/partial, hidden all amount. (belum dibuat pengecekannya)</t>
+  </si>
+  <si>
+    <t>invoice customer:</t>
+  </si>
+  <si>
+    <t>(v) - Ditambah SO No, lalu jadikan mandatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- LINE: </t>
+  </si>
+  <si>
+    <t>Major Change:</t>
+  </si>
+  <si>
+    <t>Cash-in/out flow dibuat nge-link, plan yang di invoice mengambil data plan yang di SO (tidak usah ada item categorinya)</t>
+  </si>
+  <si>
+    <t>Cash-in/out flow dibuat nge-link, plan yang di invoice mengambil data plan yang di PO (tidak usah ada item categorinya)</t>
+  </si>
+  <si>
+    <t>Request:</t>
+  </si>
+  <si>
+    <t>Requisition:</t>
+  </si>
+  <si>
+    <t>- rubah "Request No" =&gt; "Req Doc No"</t>
+  </si>
+  <si>
+    <t>- rubah "Request Date" =&gt; "Req Doc Date"</t>
+  </si>
+  <si>
+    <t>- tambah "Req ETA"</t>
+  </si>
+  <si>
+    <t>PO:</t>
+  </si>
+  <si>
+    <t>(v) - tambah "PO ETA"</t>
+  </si>
+  <si>
+    <t>PO Plan:</t>
+  </si>
+  <si>
+    <t>- Doc Date =&gt; payment date</t>
+  </si>
+  <si>
+    <t>Material Receipt:</t>
+  </si>
+  <si>
+    <t>(v) - mr line, ditambah satu field is_complete/partial, hidden all amount. (belum dibuat pengecekannya)</t>
+  </si>
+  <si>
+    <t>Outbound/Inbound: =&gt; diganti menjadi stock movement</t>
+  </si>
+  <si>
+    <t>- movement type:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Item supply =&gt; khusus ke user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Outbound =&gt; khusus ke gudang</t>
+  </si>
+  <si>
+    <t>Others Cashin/Cashout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t>Bank Payment/Bank Received</t>
+  </si>
+  <si>
+    <t>REPORT:</t>
+  </si>
+  <si>
+    <t>- Inventory Tracing =&gt; masukkan no so</t>
+  </si>
+  <si>
+    <t>- Cashflow Analisys (Invoice Customer, Invoice Vendor &amp; Other)</t>
+  </si>
+  <si>
+    <t>- hidden quantity</t>
+  </si>
+  <si>
+    <t>- munculkan request ETA pada saat entry</t>
+  </si>
+  <si>
+    <t>- DO No jadikan multi select untuk keterangan saja</t>
+  </si>
+  <si>
+    <t>- munculkan requsition ETA pada saat entry</t>
+  </si>
+  <si>
+    <t>- munculkan PO ETA pada saat entry</t>
+  </si>
+  <si>
+    <t>- semua memerlukan request</t>
+  </si>
+  <si>
+    <t>- tetap dimunculkan request ETA</t>
+  </si>
+  <si>
+    <t>- Payment Date &amp; Received Date</t>
+  </si>
+  <si>
+    <t>- detail: doc_type, account, desc, amount</t>
+  </si>
+  <si>
+    <t>- Outstanding PR</t>
+  </si>
+  <si>
+    <t>- SO/PO Outstanding/Completed</t>
+  </si>
+  <si>
+    <t>- Cashflow Statement</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>NOTE</t>
   </si>
 </sst>
 </file>
@@ -449,7 +603,7 @@
     <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +687,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1336,7 +1498,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1458,22 +1620,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1500,6 +1650,20 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1526,6 +1690,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -9250,7 +9417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9285,7 +9452,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9497,7 +9664,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:GH61"/>
+  <dimension ref="B1:GG61"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
@@ -9668,7 +9835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" ht="15">
       <c r="B11" s="16" t="s">
         <v>10</v>
       </c>
@@ -10910,72 +11077,72 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91" t="s">
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91" t="s">
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="92" t="s">
+      <c r="G4" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="92" t="s">
+      <c r="I4" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="91" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="96" t="s">
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="96" t="s">
+      <c r="G5" s="107"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="97"/>
-      <c r="K5" s="98"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="108"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -10983,72 +11150,72 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91" t="s">
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="92" t="s">
+      <c r="F10" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="92" t="s">
+      <c r="I10" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="92" t="s">
+      <c r="J10" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="92" t="s">
+      <c r="K10" s="91" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="96" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="96" t="s">
+      <c r="G11" s="107"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="97"/>
-      <c r="K11" s="98"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="108"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -11056,53 +11223,53 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91" t="s">
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="92" t="s">
+      <c r="E16" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="92" t="s">
+      <c r="F16" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="92" t="s">
+      <c r="G16" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="92" t="s">
+      <c r="H16" s="91" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="96" t="s">
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="108"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
@@ -11110,48 +11277,48 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="92" t="s">
+      <c r="E20" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="92" t="s">
+      <c r="F20" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="92" t="s">
+      <c r="G20" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="92" t="s">
+      <c r="H20" s="91" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30">
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="100" t="s">
+      <c r="C21" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="100" t="s">
+      <c r="D21" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="100" t="s">
+      <c r="F21" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="100" t="s">
+      <c r="G21" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="100" t="s">
+      <c r="H21" s="96" t="s">
         <v>88</v>
       </c>
     </row>
@@ -11161,48 +11328,48 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="92" t="s">
+      <c r="E24" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="92" t="s">
+      <c r="F24" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="92" t="s">
+      <c r="G24" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="92" t="s">
+      <c r="H24" s="91" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="100" t="s">
+      <c r="C25" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="100" t="s">
+      <c r="D25" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E25" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="100" t="s">
+      <c r="F25" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="100" t="s">
+      <c r="G25" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="H25" s="100" t="s">
+      <c r="H25" s="96" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11212,48 +11379,48 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="92" t="s">
+      <c r="D28" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="92" t="s">
+      <c r="E28" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="92" t="s">
+      <c r="F28" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="92" t="s">
+      <c r="G28" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="H28" s="92" t="s">
+      <c r="H28" s="91" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30">
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="100" t="s">
+      <c r="C29" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="99" t="s">
+      <c r="E29" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="100" t="s">
+      <c r="F29" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="100" t="s">
+      <c r="G29" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="100" t="s">
+      <c r="H29" s="96" t="s">
         <v>88</v>
       </c>
     </row>
@@ -11263,48 +11430,48 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="92" t="s">
+      <c r="C32" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="92" t="s">
+      <c r="E32" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="92" t="s">
+      <c r="F32" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="92" t="s">
+      <c r="G32" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="92" t="s">
+      <c r="H32" s="91" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="100" t="s">
+      <c r="C33" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="100" t="s">
+      <c r="D33" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="99" t="s">
+      <c r="E33" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="100" t="s">
+      <c r="F33" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="100" t="s">
+      <c r="G33" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="100" t="s">
+      <c r="H33" s="96" t="s">
         <v>97</v>
       </c>
     </row>
@@ -11314,16 +11481,16 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="101" t="s">
+      <c r="C37" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="101" t="s">
+      <c r="E37" s="97" t="s">
         <v>75</v>
       </c>
     </row>
@@ -11333,13 +11500,13 @@
       <c r="D38" s="90"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="102" t="s">
+      <c r="C39" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="102" t="s">
+      <c r="D39" s="98" t="s">
         <v>106</v>
       </c>
     </row>
@@ -11349,79 +11516,73 @@
       <c r="D40" s="90"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" s="103" t="s">
+      <c r="B41" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="103" t="s">
+      <c r="C41" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="103" t="s">
+      <c r="D41" s="99" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="B43" s="104" t="s">
+      <c r="B43" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="104" t="s">
+      <c r="C43" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="104" t="s">
+      <c r="D43" s="100" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="105" t="s">
+      <c r="C45" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="105" t="s">
+      <c r="D45" s="101" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="105" t="s">
+      <c r="C47" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="105" t="s">
+      <c r="D47" s="101" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="105" t="s">
+      <c r="C49" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="105" t="s">
+      <c r="D49" s="101" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="105" t="s">
+      <c r="B51" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="105" t="s">
+      <c r="C51" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="105" t="s">
+      <c r="D51" s="101" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -11432,6 +11593,12 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11452,10 +11619,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1">
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="104" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11716,7 +11883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -11728,10 +11895,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="107"/>
+      <c r="C3" s="103"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
@@ -11764,58 +11931,580 @@
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="106" t="s">
+      <c r="D12" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="106" t="s">
+      <c r="F12" s="102" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="93" t="str">
+      <c r="E13" s="92" t="str">
         <f>Account!B3</f>
         <v>Cash Paid to Suppliers</v>
       </c>
-      <c r="F13" s="93"/>
+      <c r="F13" s="92"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="95" t="str">
+      <c r="E14" s="94" t="str">
         <f>Account!B2</f>
         <v>Cash Collected from Customers</v>
       </c>
-      <c r="F14" s="95"/>
+      <c r="F14" s="94"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="94" t="s">
+      <c r="E15" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="94"/>
+      <c r="F15" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" hidden="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" s="109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" s="109" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" s="109" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" s="110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" s="109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" s="109" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47" s="109" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51" s="109" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57" s="109" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58" s="109" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63" s="109" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64" s="109" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69" s="109" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B69">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -30,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Report-CashFlow'!$B$2:$P$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report-CashFlow'!$B:$C</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -592,7 +592,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1650,6 +1650,8 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1662,8 +1664,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -11077,22 +11077,22 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105" t="s">
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="91" t="s">
@@ -11127,22 +11127,22 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="106" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="107"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="106" t="s">
+      <c r="G5" s="109"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="107"/>
-      <c r="K5" s="108"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="110"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -11150,22 +11150,22 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105" t="s">
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105" t="s">
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="91" t="s">
@@ -11200,22 +11200,22 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="106" t="s">
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="106" t="s">
+      <c r="G11" s="109"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="108"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="110"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -11223,17 +11223,17 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105" t="s">
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="91" t="s">
@@ -11259,17 +11259,17 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="106" t="s">
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="108"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
@@ -11583,6 +11583,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -11593,12 +11599,6 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11992,8 +11992,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12010,7 +12010,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="106" t="s">
         <v>135</v>
       </c>
     </row>
@@ -12026,7 +12026,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="106" t="s">
         <v>137</v>
       </c>
     </row>
@@ -12034,7 +12034,7 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="106" t="s">
         <v>138</v>
       </c>
     </row>
@@ -12055,7 +12055,7 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="106" t="s">
         <v>140</v>
       </c>
     </row>
@@ -12063,7 +12063,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="106" t="s">
         <v>141</v>
       </c>
     </row>
@@ -12097,7 +12097,7 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="106" t="s">
         <v>144</v>
       </c>
     </row>
@@ -12105,7 +12105,7 @@
       <c r="A15">
         <v>0</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="105" t="s">
         <v>172</v>
       </c>
     </row>
@@ -12113,7 +12113,7 @@
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="106" t="s">
         <v>141</v>
       </c>
     </row>
@@ -12171,7 +12171,7 @@
       <c r="A24">
         <v>0</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="105" t="s">
         <v>170</v>
       </c>
     </row>
@@ -12192,7 +12192,7 @@
       <c r="A27">
         <v>0</v>
       </c>
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="105" t="s">
         <v>171</v>
       </c>
     </row>
@@ -12224,7 +12224,7 @@
       <c r="A31">
         <v>0</v>
       </c>
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="105" t="s">
         <v>170</v>
       </c>
     </row>
@@ -12245,7 +12245,7 @@
       <c r="A34">
         <v>0</v>
       </c>
-      <c r="B34" s="109" t="s">
+      <c r="B34" s="105" t="s">
         <v>173</v>
       </c>
     </row>
@@ -12253,7 +12253,7 @@
       <c r="A35">
         <v>1</v>
       </c>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="106" t="s">
         <v>155</v>
       </c>
     </row>
@@ -12261,7 +12261,7 @@
       <c r="A36">
         <v>0</v>
       </c>
-      <c r="B36" s="109" t="s">
+      <c r="B36" s="105" t="s">
         <v>170</v>
       </c>
     </row>
@@ -12303,7 +12303,7 @@
       <c r="A42">
         <v>0</v>
       </c>
-      <c r="B42" s="109" t="s">
+      <c r="B42" s="105" t="s">
         <v>174</v>
       </c>
     </row>
@@ -12311,7 +12311,7 @@
       <c r="A43">
         <v>1</v>
       </c>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="106" t="s">
         <v>159</v>
       </c>
     </row>
@@ -12337,7 +12337,7 @@
       <c r="A47">
         <v>0</v>
       </c>
-      <c r="B47" s="109" t="s">
+      <c r="B47" s="105" t="s">
         <v>175</v>
       </c>
     </row>
@@ -12369,7 +12369,7 @@
       <c r="A51">
         <v>0</v>
       </c>
-      <c r="B51" s="109" t="s">
+      <c r="B51" s="105" t="s">
         <v>176</v>
       </c>
     </row>
@@ -12411,7 +12411,7 @@
       <c r="A57">
         <v>0</v>
       </c>
-      <c r="B57" s="109" t="s">
+      <c r="B57" s="105" t="s">
         <v>177</v>
       </c>
     </row>
@@ -12419,7 +12419,7 @@
       <c r="A58">
         <v>0</v>
       </c>
-      <c r="B58" s="109" t="s">
+      <c r="B58" s="105" t="s">
         <v>178</v>
       </c>
     </row>
@@ -12450,7 +12450,7 @@
       <c r="A63">
         <v>0</v>
       </c>
-      <c r="B63" s="109" t="s">
+      <c r="B63" s="105" t="s">
         <v>179</v>
       </c>
     </row>
@@ -12458,7 +12458,7 @@
       <c r="A64">
         <v>0</v>
       </c>
-      <c r="B64" s="109" t="s">
+      <c r="B64" s="105" t="s">
         <v>180</v>
       </c>
     </row>
@@ -12492,7 +12492,7 @@
       <c r="A69">
         <v>0</v>
       </c>
-      <c r="B69" s="109" t="s">
+      <c r="B69" s="105" t="s">
         <v>181</v>
       </c>
     </row>

--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -11583,12 +11583,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -11599,6 +11593,12 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11992,8 +11992,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12188,41 +12188,41 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" hidden="1">
       <c r="A27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" s="105" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" hidden="1">
       <c r="A28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" hidden="1">
       <c r="A29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" hidden="1">
       <c r="A30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" hidden="1">
       <c r="A31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="105" t="s">
         <v>170</v>
@@ -12241,9 +12241,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" hidden="1">
       <c r="A34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="105" t="s">
         <v>173</v>
@@ -12257,9 +12257,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" hidden="1">
       <c r="A36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" s="105" t="s">
         <v>170</v>
@@ -12278,9 +12278,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" hidden="1">
       <c r="A39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
         <v>157</v>
@@ -12299,9 +12299,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" hidden="1">
       <c r="A42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" s="105" t="s">
         <v>174</v>

--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -30,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Report-CashFlow'!$B$2:$P$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report-CashFlow'!$B:$C</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -592,7 +592,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -11583,6 +11583,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -11593,12 +11599,6 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11992,8 +11992,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12138,17 +12138,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" hidden="1">
       <c r="A20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" hidden="1">
       <c r="A21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>148</v>

--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -23,19 +23,19 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$B$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$B$83</definedName>
     <definedName name="CF_JFI">[1]Database!$D$3:$G$503</definedName>
     <definedName name="COA">[2]COA!$A$2:$A$139</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Report-CashFlow'!$B$2:$P$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report-CashFlow'!$B:$C</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="198">
   <si>
     <t>STATEMENT OF CASH FLOW</t>
   </si>
@@ -587,13 +587,56 @@
   </si>
   <si>
     <t>NOTE</t>
+  </si>
+  <si>
+    <t>Tampilkan summary complete</t>
+  </si>
+  <si>
+    <t>request dirubah nama menjadi "planning"</t>
+  </si>
+  <si>
+    <t>SO ETD dirubah jadi DT PO Customer</t>
+  </si>
+  <si>
+    <t>jika eta mendekati 6 hari dari "tanggal planning eta" maka diberi status "warning"</t>
+  </si>
+  <si>
+    <t>Requisition Line:</t>
+  </si>
+  <si>
+    <t>request belum ke filter</t>
+  </si>
+  <si>
+    <t>tanggal ETA harus lebih kecil dari "tanggal planning ETA"</t>
+  </si>
+  <si>
+    <t>Tanggal ETA harus lebih kecil dan sama dengan dari "tanggal PR ETA"</t>
+  </si>
+  <si>
+    <t>Payment Plan type: DP, Drawing, Material Receipt, Progress, Inspector, Shipment</t>
+  </si>
+  <si>
+    <t>Q: Setiap shipment sudah pasti harus selesai, tapi shipment bisa dilakukan parsial. Bukan shipment vs shipment yang parsial tapi shipment vs so yang parsial
+S: Harusnya SO yang dikasih complete shipment atau belum</t>
+  </si>
+  <si>
+    <t>ISSUE DATE</t>
+  </si>
+  <si>
+    <t>PO Line:</t>
+  </si>
+  <si>
+    <t>PR belum ke filter</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -602,6 +645,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1498,7 +1542,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1663,6 +1707,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -11054,7 +11113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -11583,12 +11642,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -11599,6 +11652,12 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11990,155 +12049,183 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="111"/>
+    <col min="2" max="2" width="82.140625" style="111" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="114" customWidth="1"/>
+    <col min="4" max="4" width="164.42578125" style="111" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="111"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="111" t="s">
         <v>182</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="111" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" hidden="1">
+      <c r="C1" s="114" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" customFormat="1" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="106" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="C2" s="106"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="111">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="111" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1">
+    <row r="4" spans="1:4" customFormat="1" hidden="1">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="106" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" hidden="1">
+      <c r="C4" s="106"/>
+    </row>
+    <row r="5" spans="1:4" customFormat="1" hidden="1">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="106" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+      <c r="C5" s="106"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="7" spans="1:4">
+      <c r="A7" s="111">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="111" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1">
+    <row r="8" spans="1:4" customFormat="1" hidden="1">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="106" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" hidden="1">
+      <c r="C8" s="106"/>
+    </row>
+    <row r="9" spans="1:4" customFormat="1" hidden="1">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="106" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" hidden="1">
-      <c r="A10">
+      <c r="C9" s="106"/>
+    </row>
+    <row r="10" spans="1:4" hidden="1">
+      <c r="A10" s="111">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="111" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+      <c r="C10" s="111"/>
+    </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="111">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+      <c r="B11" s="111" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="114">
+        <v>43015</v>
+      </c>
+      <c r="D11" s="112" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+    <row r="13" spans="1:4">
+      <c r="A13" s="111">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="111" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1">
+    <row r="14" spans="1:4" customFormat="1" hidden="1">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="106" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+      <c r="C14" s="106"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="111">
         <v>0</v>
       </c>
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="113" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" hidden="1">
+      <c r="C15" s="115"/>
+    </row>
+    <row r="16" spans="1:4" customFormat="1" hidden="1">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" s="106" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+      <c r="C16" s="106"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="111">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="111" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
+    <row r="18" spans="1:4">
+      <c r="A18" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+    <row r="19" spans="1:4">
+      <c r="A19" s="111">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="111" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1">
+    <row r="20" spans="1:4" customFormat="1" hidden="1">
       <c r="A20">
         <v>1</v>
       </c>
@@ -12146,7 +12233,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1">
+    <row r="21" spans="1:4" customFormat="1" hidden="1">
       <c r="A21">
         <v>1</v>
       </c>
@@ -12154,350 +12241,492 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+    <row r="22" spans="1:4">
+      <c r="A22" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
+    <row r="23" spans="1:4">
+      <c r="A23" s="111">
         <v>0</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="111" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4" customFormat="1" hidden="1">
       <c r="A24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="105" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
+      <c r="C24" s="105"/>
+    </row>
+    <row r="25" spans="1:4" hidden="1">
+      <c r="A25" s="111">
+        <v>1</v>
+      </c>
+      <c r="B25" s="111" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="114">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="111">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
+      <c r="B26" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="114">
+        <v>43015</v>
+      </c>
+      <c r="D26" s="111" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="111">
         <v>0</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="111">
+        <v>0</v>
+      </c>
+      <c r="B28" s="111" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" s="105" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" hidden="1">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" hidden="1">
+    <row r="29" spans="1:4" customFormat="1" hidden="1">
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" hidden="1">
+      <c r="B29" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="105"/>
+    </row>
+    <row r="30" spans="1:4" customFormat="1" hidden="1">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" hidden="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" customFormat="1" hidden="1">
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" s="105" t="s">
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" customFormat="1" hidden="1">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" customFormat="1" hidden="1">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" s="105" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
+      <c r="C33" s="105"/>
+    </row>
+    <row r="34" spans="1:3" hidden="1">
+      <c r="A34" s="111">
+        <v>1</v>
+      </c>
+      <c r="B34" s="111" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="114">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1">
+      <c r="A35" s="111">
+        <v>1</v>
+      </c>
+      <c r="B35" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="114">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
+    <row r="37" spans="1:3">
+      <c r="A37" s="111">
         <v>0</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" s="111" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1">
+      <c r="A38" s="111">
+        <v>1</v>
+      </c>
+      <c r="B38" s="111" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="114">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="111">
+        <v>0</v>
+      </c>
+      <c r="B40" s="111" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1">
-      <c r="A34">
+    <row r="41" spans="1:3" customFormat="1" hidden="1">
+      <c r="A41">
         <v>1</v>
       </c>
-      <c r="B34" s="105" t="s">
+      <c r="B41" s="105" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" hidden="1">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" s="106" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" s="105" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" hidden="1">
+      <c r="C41" s="105"/>
+    </row>
+    <row r="42" spans="1:3" customFormat="1" hidden="1">
       <c r="A42">
         <v>1</v>
       </c>
-      <c r="B42" s="105" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" hidden="1">
+      <c r="B42" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="106"/>
+    </row>
+    <row r="43" spans="1:3" customFormat="1" hidden="1">
       <c r="A43">
         <v>1</v>
       </c>
-      <c r="B43" s="106" t="s">
+      <c r="B43" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="105"/>
+    </row>
+    <row r="44" spans="1:3" hidden="1">
+      <c r="A44" s="111">
+        <v>1</v>
+      </c>
+      <c r="B44" s="111" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="114">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="111">
+        <v>0</v>
+      </c>
+      <c r="B46" s="111" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1">
+      <c r="A47" s="111">
+        <v>1</v>
+      </c>
+      <c r="B47" s="111" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="114">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="111">
+        <v>0</v>
+      </c>
+      <c r="B49" s="111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" customFormat="1" hidden="1">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="111">
+        <v>0</v>
+      </c>
+      <c r="B51" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="114">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="111">
+        <v>0</v>
+      </c>
+      <c r="B55" s="111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" customFormat="1" hidden="1">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="105"/>
+    </row>
+    <row r="57" spans="1:3" customFormat="1" hidden="1">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" s="106" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
+      <c r="C57" s="106"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
+    <row r="59" spans="1:3">
+      <c r="A59" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
+    <row r="60" spans="1:3">
+      <c r="A60" s="111">
         <v>0</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B60" s="111" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
+    <row r="61" spans="1:3">
+      <c r="A61" s="111">
         <v>0</v>
       </c>
-      <c r="B47" s="105" t="s">
+      <c r="B61" s="113" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
+      <c r="C61" s="115"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="111">
         <v>0</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B62" s="111" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
+    <row r="63" spans="1:3">
+      <c r="A63" s="111">
         <v>0</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B63" s="111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
+    <row r="64" spans="1:3">
+      <c r="A64" s="111">
         <v>0</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B64" s="111" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
+    <row r="65" spans="1:3">
+      <c r="A65" s="111">
         <v>0</v>
       </c>
-      <c r="B51" s="105" t="s">
+      <c r="B65" s="113" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
+      <c r="C65" s="115"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
+    <row r="67" spans="1:3">
+      <c r="A67" s="111">
         <v>0</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B67" s="111" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
+    <row r="68" spans="1:3">
+      <c r="A68" s="111">
         <v>0</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B68" s="111" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
+    <row r="69" spans="1:3">
+      <c r="A69" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
+    <row r="70" spans="1:3">
+      <c r="A70" s="111">
         <v>0</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B70" s="111" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
+    <row r="71" spans="1:3">
+      <c r="A71" s="111">
         <v>0</v>
       </c>
-      <c r="B57" s="105" t="s">
+      <c r="B71" s="113" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
+      <c r="C71" s="115"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="111">
         <v>0</v>
       </c>
-      <c r="B58" s="105" t="s">
+      <c r="B72" s="113" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
+      <c r="C72" s="115"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
+    <row r="74" spans="1:3">
+      <c r="A74" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
+    <row r="75" spans="1:3">
+      <c r="A75" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
+    <row r="76" spans="1:3">
+      <c r="A76" s="111">
         <v>0</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B76" s="111" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
+    <row r="77" spans="1:3">
+      <c r="A77" s="111">
         <v>0</v>
       </c>
-      <c r="B63" s="105" t="s">
+      <c r="B77" s="113" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
+      <c r="C77" s="115"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="111">
         <v>0</v>
       </c>
-      <c r="B64" s="105" t="s">
+      <c r="B78" s="113" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
+      <c r="C78" s="115"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
+    <row r="80" spans="1:3">
+      <c r="A80" s="111">
         <v>0</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B80" s="111" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
+    <row r="81" spans="1:3">
+      <c r="A81" s="111">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
+    <row r="82" spans="1:3">
+      <c r="A82" s="111">
         <v>0</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B82" s="111" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
+    <row r="83" spans="1:3">
+      <c r="A83" s="111">
         <v>0</v>
       </c>
-      <c r="B69" s="105" t="s">
+      <c r="B83" s="113" t="s">
         <v>181</v>
       </c>
+      <c r="C83" s="115"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B69">
+  <autoFilter ref="A1:B83">
     <filterColumn colId="0">
       <filters>
         <filter val="0"/>

--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -23,19 +23,19 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$B$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$B$86</definedName>
     <definedName name="CF_JFI">[1]Database!$D$3:$G$503</definedName>
     <definedName name="COA">[2]COA!$A$2:$A$139</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Report-CashFlow'!$B$2:$P$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report-CashFlow'!$B:$C</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="199">
   <si>
     <t>STATEMENT OF CASH FLOW</t>
   </si>
@@ -630,12 +630,15 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>SO Plan:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -645,7 +648,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="169" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1696,6 +1699,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1707,21 +1725,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -11136,22 +11139,22 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107" t="s">
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107" t="s">
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="91" t="s">
@@ -11186,22 +11189,22 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="108" t="s">
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="109"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="108" t="s">
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="109"/>
-      <c r="K5" s="110"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -11209,22 +11212,22 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107" t="s">
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107" t="s">
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="91" t="s">
@@ -11259,22 +11262,22 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="108" t="s">
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="109"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="108" t="s">
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="115"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -11282,17 +11285,17 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107" t="s">
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="91" t="s">
@@ -11318,17 +11321,17 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="108" t="s">
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="115"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
@@ -11642,6 +11645,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -11652,12 +11661,6 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12049,29 +12052,29 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="111"/>
-    <col min="2" max="2" width="82.140625" style="111" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="114" customWidth="1"/>
-    <col min="4" max="4" width="164.42578125" style="111" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="111"/>
+    <col min="1" max="1" width="9.140625" style="107"/>
+    <col min="2" max="2" width="82.140625" style="107" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="110" customWidth="1"/>
+    <col min="4" max="4" width="164.42578125" style="107" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="107" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="110" t="s">
         <v>194</v>
       </c>
     </row>
@@ -12085,10 +12088,10 @@
       <c r="C2" s="106"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="111">
+      <c r="A3" s="107">
         <v>0</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="107" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12111,622 +12114,646 @@
       <c r="C5" s="106"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="111">
+      <c r="A6" s="107">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="111">
+      <c r="A7" s="107">
         <v>0</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="107" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1">
+      <c r="A8" s="107">
+        <v>1</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="110">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="107">
+        <v>0</v>
+      </c>
+      <c r="B10" s="107" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:4" customFormat="1" hidden="1">
-      <c r="A8">
+    <row r="11" spans="1:4" customFormat="1" hidden="1">
+      <c r="A11">
         <v>1</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="B11" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="106"/>
-    </row>
-    <row r="9" spans="1:4" customFormat="1" hidden="1">
-      <c r="A9">
+      <c r="C11" s="106"/>
+    </row>
+    <row r="12" spans="1:4" customFormat="1" hidden="1">
+      <c r="A12">
         <v>1</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B12" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="106"/>
-    </row>
-    <row r="10" spans="1:4" hidden="1">
-      <c r="A10" s="111">
+      <c r="C12" s="106"/>
+    </row>
+    <row r="13" spans="1:4" hidden="1">
+      <c r="A13" s="107">
         <v>1</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B13" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="111"/>
-    </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="A11" s="111">
+      <c r="C13" s="107"/>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="107">
         <v>0</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B14" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="114">
+      <c r="C14" s="110">
         <v>43015</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="D14" s="108" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="111">
+    <row r="15" spans="1:4">
+      <c r="A15" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="111">
+    <row r="16" spans="1:4">
+      <c r="A16" s="107">
         <v>0</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B16" s="107" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:4" customFormat="1" hidden="1">
-      <c r="A14">
+    <row r="17" spans="1:4" customFormat="1" hidden="1">
+      <c r="A17">
         <v>1</v>
       </c>
-      <c r="B14" s="106" t="s">
+      <c r="B17" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="106"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="111">
+      <c r="C17" s="106"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="107">
         <v>0</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B18" s="109" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="115"/>
-    </row>
-    <row r="16" spans="1:4" customFormat="1" hidden="1">
-      <c r="A16">
+      <c r="C18" s="111"/>
+    </row>
+    <row r="19" spans="1:4" customFormat="1" hidden="1">
+      <c r="A19">
         <v>1</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B19" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="106"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="111">
+      <c r="C19" s="106"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="107">
         <v>0</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B20" s="107" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="111">
+    <row r="21" spans="1:4">
+      <c r="A21" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="111">
+    <row r="22" spans="1:4">
+      <c r="A22" s="107">
         <v>0</v>
       </c>
-      <c r="B19" s="111" t="s">
+      <c r="B22" s="107" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:4" customFormat="1" hidden="1">
-      <c r="A20">
+    <row r="23" spans="1:4" customFormat="1" hidden="1">
+      <c r="A23">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" customFormat="1" hidden="1">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="111">
-        <v>0</v>
-      </c>
-      <c r="B23" s="111" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:4" customFormat="1" hidden="1">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="107">
+        <v>0</v>
+      </c>
+      <c r="B26" s="107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" customFormat="1" hidden="1">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="105"/>
-    </row>
-    <row r="25" spans="1:4" hidden="1">
-      <c r="A25" s="111">
+      <c r="C27" s="105"/>
+    </row>
+    <row r="28" spans="1:4" hidden="1">
+      <c r="A28" s="107">
         <v>1</v>
       </c>
-      <c r="B25" s="111" t="s">
+      <c r="B28" s="107" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="114">
+      <c r="C28" s="110">
         <v>43015</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="111">
+    <row r="29" spans="1:4">
+      <c r="A29" s="107">
         <v>0</v>
       </c>
-      <c r="B26" s="111" t="s">
+      <c r="B29" s="107" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="114">
+      <c r="C29" s="110">
         <v>43015</v>
       </c>
-      <c r="D26" s="111" t="s">
+      <c r="D29" s="107" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="111">
+    <row r="30" spans="1:4">
+      <c r="A30" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="111">
+    <row r="31" spans="1:4">
+      <c r="A31" s="107">
         <v>0</v>
       </c>
-      <c r="B28" s="111" t="s">
+      <c r="B31" s="107" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" customFormat="1" hidden="1">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" s="105" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="105"/>
-    </row>
-    <row r="30" spans="1:4" customFormat="1" hidden="1">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" customFormat="1" hidden="1">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:4" customFormat="1" hidden="1">
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32" t="s">
-        <v>153</v>
-      </c>
+      <c r="B32" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="105"/>
     </row>
     <row r="33" spans="1:3" customFormat="1" hidden="1">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="105" t="s">
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" customFormat="1" hidden="1">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" customFormat="1" hidden="1">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" customFormat="1" hidden="1">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="105"/>
-    </row>
-    <row r="34" spans="1:3" hidden="1">
-      <c r="A34" s="111">
+      <c r="C36" s="105"/>
+    </row>
+    <row r="37" spans="1:3" hidden="1">
+      <c r="A37" s="107">
         <v>1</v>
       </c>
-      <c r="B34" s="111" t="s">
+      <c r="B37" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="C34" s="114">
+      <c r="C37" s="110">
         <v>43015</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1">
-      <c r="A35" s="111">
+    <row r="38" spans="1:3" hidden="1">
+      <c r="A38" s="107">
         <v>1</v>
       </c>
-      <c r="B35" s="111" t="s">
+      <c r="B38" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="114">
+      <c r="C38" s="110">
         <v>43015</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="111">
+    <row r="39" spans="1:3">
+      <c r="A39" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="111">
+    <row r="40" spans="1:3">
+      <c r="A40" s="107">
         <v>0</v>
       </c>
-      <c r="B37" s="111" t="s">
+      <c r="B40" s="107" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1">
-      <c r="A38" s="111">
+    <row r="41" spans="1:3" hidden="1">
+      <c r="A41" s="107">
         <v>1</v>
       </c>
-      <c r="B38" s="111" t="s">
+      <c r="B41" s="107" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="114">
+      <c r="C41" s="110">
         <v>43015</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="111">
+    <row r="42" spans="1:3">
+      <c r="A42" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="111">
+    <row r="43" spans="1:3">
+      <c r="A43" s="107">
         <v>0</v>
       </c>
-      <c r="B40" s="111" t="s">
+      <c r="B43" s="107" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:3" customFormat="1" hidden="1">
-      <c r="A41">
+    <row r="44" spans="1:3" customFormat="1" hidden="1">
+      <c r="A44">
         <v>1</v>
       </c>
-      <c r="B41" s="105" t="s">
+      <c r="B44" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="105"/>
-    </row>
-    <row r="42" spans="1:3" customFormat="1" hidden="1">
-      <c r="A42">
+      <c r="C44" s="105"/>
+    </row>
+    <row r="45" spans="1:3" customFormat="1" hidden="1">
+      <c r="A45">
         <v>1</v>
       </c>
-      <c r="B42" s="106" t="s">
+      <c r="B45" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="C42" s="106"/>
-    </row>
-    <row r="43" spans="1:3" customFormat="1" hidden="1">
-      <c r="A43">
+      <c r="C45" s="106"/>
+    </row>
+    <row r="46" spans="1:3" customFormat="1" hidden="1">
+      <c r="A46">
         <v>1</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B46" s="105" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="105"/>
-    </row>
-    <row r="44" spans="1:3" hidden="1">
-      <c r="A44" s="111">
+      <c r="C46" s="105"/>
+    </row>
+    <row r="47" spans="1:3" hidden="1">
+      <c r="A47" s="107">
         <v>1</v>
       </c>
-      <c r="B44" s="111" t="s">
+      <c r="B47" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="114">
+      <c r="C47" s="110">
         <v>43015</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="111">
+    <row r="48" spans="1:3">
+      <c r="A48" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="111">
+    <row r="49" spans="1:3">
+      <c r="A49" s="107">
         <v>0</v>
       </c>
-      <c r="B46" s="111" t="s">
+      <c r="B49" s="107" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1">
-      <c r="A47" s="111">
+    <row r="50" spans="1:3" hidden="1">
+      <c r="A50" s="107">
         <v>1</v>
       </c>
-      <c r="B47" s="111" t="s">
+      <c r="B50" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="C47" s="114">
+      <c r="C50" s="110">
         <v>43015</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="111">
+    <row r="51" spans="1:3">
+      <c r="A51" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="111">
+    <row r="52" spans="1:3">
+      <c r="A52" s="107">
         <v>0</v>
       </c>
-      <c r="B49" s="111" t="s">
+      <c r="B52" s="107" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:3" customFormat="1" hidden="1">
-      <c r="A50">
+    <row r="53" spans="1:3" customFormat="1" hidden="1">
+      <c r="A53">
         <v>1</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="111">
+    <row r="54" spans="1:3" hidden="1">
+      <c r="A54" s="107">
+        <v>1</v>
+      </c>
+      <c r="B54" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="110">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="107">
         <v>0</v>
       </c>
-      <c r="B51" s="111" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" s="114">
-        <v>43015</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="111">
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="111">
+    <row r="57" spans="1:3">
+      <c r="A57" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="111">
+    <row r="58" spans="1:3">
+      <c r="A58" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="111">
+      <c r="B58" s="107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" customFormat="1" hidden="1">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="105"/>
+    </row>
+    <row r="60" spans="1:3" customFormat="1" hidden="1">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" s="106" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="106"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="107">
         <v>0</v>
       </c>
-      <c r="B55" s="111" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" customFormat="1" hidden="1">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" s="105"/>
-    </row>
-    <row r="57" spans="1:3" customFormat="1" hidden="1">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="106"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="111">
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="111">
+    <row r="63" spans="1:3">
+      <c r="A63" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="111">
+      <c r="B63" s="107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="107">
         <v>0</v>
       </c>
-      <c r="B60" s="111" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="111">
+      <c r="B64" s="109" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="111"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="107">
         <v>0</v>
       </c>
-      <c r="B61" s="113" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" s="115"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="111">
+      <c r="B65" s="107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="107">
         <v>0</v>
       </c>
-      <c r="B62" s="111" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="111">
+      <c r="B66" s="107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="107">
         <v>0</v>
       </c>
-      <c r="B63" s="111" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="111">
+      <c r="B67" s="107" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="107">
         <v>0</v>
       </c>
-      <c r="B64" s="111" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="111">
+      <c r="B68" s="109" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" s="111"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="107">
         <v>0</v>
       </c>
-      <c r="B65" s="113" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" s="115"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="111">
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="111">
+      <c r="B70" s="107" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="107">
         <v>0</v>
       </c>
-      <c r="B67" s="111" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="111">
+      <c r="B71" s="107" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="107">
         <v>0</v>
       </c>
-      <c r="B68" s="111" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="111">
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="111">
+      <c r="B73" s="107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="107">
         <v>0</v>
       </c>
-      <c r="B70" s="111" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="111">
+      <c r="B74" s="109" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="111"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="107">
         <v>0</v>
       </c>
-      <c r="B71" s="113" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" s="115"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="111">
+      <c r="B75" s="109" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" s="111"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="107">
         <v>0</v>
       </c>
-      <c r="B72" s="113" t="s">
-        <v>178</v>
-      </c>
-      <c r="C72" s="115"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="111">
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="111">
+    <row r="78" spans="1:3">
+      <c r="A78" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="111">
+    <row r="79" spans="1:3">
+      <c r="A79" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="111">
+      <c r="B79" s="107" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="107">
         <v>0</v>
       </c>
-      <c r="B76" s="111" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="111">
+      <c r="B80" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="111"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="107">
         <v>0</v>
       </c>
-      <c r="B77" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" s="115"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="111">
+      <c r="B81" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" s="111"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="107">
         <v>0</v>
       </c>
-      <c r="B78" s="113" t="s">
-        <v>180</v>
-      </c>
-      <c r="C78" s="115"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="111">
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="111">
+      <c r="B83" s="107" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="107">
         <v>0</v>
       </c>
-      <c r="B80" s="111" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="111">
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="111">
+      <c r="B85" s="107" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="107">
         <v>0</v>
       </c>
-      <c r="B82" s="111" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="111">
-        <v>0</v>
-      </c>
-      <c r="B83" s="113" t="s">
+      <c r="B86" s="109" t="s">
         <v>181</v>
       </c>
-      <c r="C83" s="115"/>
+      <c r="C86" s="111"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B83">
+  <autoFilter ref="A1:B86">
     <filterColumn colId="0">
       <filters>
         <filter val="0"/>

--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -23,19 +23,19 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$B$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$B$93</definedName>
     <definedName name="CF_JFI">[1]Database!$D$3:$G$503</definedName>
     <definedName name="COA">[2]COA!$A$2:$A$139</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Report-CashFlow'!$B$2:$P$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report-CashFlow'!$B:$C</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="230">
   <si>
     <t>STATEMENT OF CASH FLOW</t>
   </si>
@@ -428,9 +428,6 @@
   </si>
   <si>
     <t>Bank Payment / Received</t>
-  </si>
-  <si>
-    <t>Invoice to Vendor</t>
   </si>
   <si>
     <t>Invoice No</t>
@@ -633,12 +630,108 @@
   </si>
   <si>
     <t>SO Plan:</t>
+  </si>
+  <si>
+    <t>is_receipt</t>
+  </si>
+  <si>
+    <t>Invoice from Vendor</t>
+  </si>
+  <si>
+    <t>jika dipilih BP nya maka semua pembayaran terkait dengan invoice &amp; ar/ap muncul semua</t>
+  </si>
+  <si>
+    <t>doc_no</t>
+  </si>
+  <si>
+    <t>doc_date</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>order_plan &gt; note</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>order_plan &gt; description</t>
+  </si>
+  <si>
+    <t>ar_ap_plan &gt; note</t>
+  </si>
+  <si>
+    <t>ar_ap_plan &gt; description</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>invoice &gt; amount</t>
+  </si>
+  <si>
+    <t>ar_ap_plan &gt; amount</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>doc_no header</t>
+  </si>
+  <si>
+    <t>INV-C-01</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
+    <t>AR-01</t>
+  </si>
+  <si>
+    <t>BANK RECEIVED</t>
+  </si>
+  <si>
+    <t>HEADER</t>
+  </si>
+  <si>
+    <t>Invoice Customer</t>
+  </si>
+  <si>
+    <t>Other In</t>
+  </si>
+  <si>
+    <t>Invoice Vendor</t>
+  </si>
+  <si>
+    <t>Other Out</t>
+  </si>
+  <si>
+    <t>plan - invoice date</t>
+  </si>
+  <si>
+    <t>customer top</t>
+  </si>
+  <si>
+    <t>plan received date &lt;== doc_date dirubah menjadi ini</t>
+  </si>
+  <si>
+    <t>vendor top</t>
+  </si>
+  <si>
+    <t>plan payment date &lt;== doc_date dirubah menjadi ini</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1545,7 +1638,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1725,6 +1818,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -11116,8 +11216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11645,12 +11745,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -11661,6 +11755,12 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11668,10 +11768,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C32"/>
+  <dimension ref="B1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11680,260 +11780,367 @@
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1">
       <c r="B1" s="104" t="s">
         <v>56</v>
       </c>
       <c r="C1" s="104" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="2:3">
+      <c r="E1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="89" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="89" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="89" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="2:3">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="2:3">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="2:3">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="2:3">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="2:3">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
         <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
         <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
         <v>31</v>
       </c>
       <c r="C26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="2:3">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" t="s">
         <v>49</v>
       </c>
       <c r="C27" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="2:3">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" t="s">
         <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="2:3">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" t="s">
         <v>53</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="2:3">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" t="s">
         <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="2:3">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
         <v>55</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="2:3">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11943,17 +12150,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F15"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B3:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
@@ -12008,10 +12220,10 @@
     </row>
     <row r="13" spans="2:6">
       <c r="C13" s="92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="92" t="s">
         <v>131</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>132</v>
       </c>
       <c r="E13" s="92" t="str">
         <f>Account!B3</f>
@@ -12024,7 +12236,7 @@
         <v>73</v>
       </c>
       <c r="D14" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="94" t="str">
         <f>Account!B2</f>
@@ -12037,25 +12249,174 @@
         <v>125</v>
       </c>
       <c r="D15" s="93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" s="93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F15" s="93"/>
     </row>
+    <row r="19" spans="3:5">
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5">
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="116">
+        <v>42737</v>
+      </c>
+      <c r="E34" s="94" t="str">
+        <f>Account!B22</f>
+        <v>Cash Paid for  Professional Association Fee</v>
+      </c>
+      <c r="F34" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="116">
+        <v>42737</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="117" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="117" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" s="117"/>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="118" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8">
+      <c r="C44" s="117" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="C45" s="117" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12067,205 +12428,214 @@
     <col min="5" max="16384" width="9.140625" style="107"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="107" t="s">
-        <v>183</v>
-      </c>
       <c r="C1" s="110" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" customFormat="1" hidden="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" customFormat="1" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="106" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="106"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" s="107">
         <v>0</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" customFormat="1" hidden="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" customFormat="1" hidden="1">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="106"/>
     </row>
-    <row r="5" spans="1:4" customFormat="1" hidden="1">
+    <row r="5" spans="1:3" customFormat="1" hidden="1">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="106"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" s="107">
         <v>0</v>
       </c>
-      <c r="B7" s="107" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="107">
+        <v>0</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1">
+      <c r="A9" s="107">
         <v>1</v>
       </c>
-      <c r="B8" s="107" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="110">
+      <c r="B9" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="110">
         <v>43015</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10" s="107">
         <v>0</v>
       </c>
       <c r="B10" s="107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" customFormat="1" hidden="1">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="106"/>
-    </row>
-    <row r="12" spans="1:4" customFormat="1" hidden="1">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="106" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="106"/>
-    </row>
-    <row r="13" spans="1:4" hidden="1">
+        <v>224</v>
+      </c>
+      <c r="C10" s="110">
+        <v>43046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="107">
+        <v>0</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="110">
+        <v>43046</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="107">
+        <v>0</v>
+      </c>
+      <c r="B12" s="107" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="110">
+        <v>43046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="107">
-        <v>1</v>
-      </c>
-      <c r="B13" s="107" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="107"/>
-    </row>
-    <row r="14" spans="1:4" ht="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="107">
         <v>0</v>
       </c>
       <c r="B14" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="110">
-        <v>43015</v>
-      </c>
-      <c r="D14" s="108" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="107">
-        <v>0</v>
-      </c>
-      <c r="B16" s="107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" customFormat="1" hidden="1">
-      <c r="A17">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" customFormat="1" hidden="1">
+      <c r="A15">
         <v>1</v>
       </c>
-      <c r="B17" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="106"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B15" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="106"/>
+    </row>
+    <row r="16" spans="1:3" customFormat="1" hidden="1">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="106"/>
+    </row>
+    <row r="17" spans="1:4" hidden="1">
+      <c r="A17" s="107">
+        <v>1</v>
+      </c>
+      <c r="B17" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="107"/>
+    </row>
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" s="107">
         <v>0</v>
       </c>
-      <c r="B18" s="109" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="111"/>
-    </row>
-    <row r="19" spans="1:4" customFormat="1" hidden="1">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="106" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="106"/>
+      <c r="B18" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="110">
+        <v>43015</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="107">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="107">
         <v>0</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="107">
-        <v>0</v>
-      </c>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" customFormat="1" hidden="1">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="106"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="107">
         <v>0</v>
       </c>
-      <c r="B22" s="107" t="s">
-        <v>146</v>
-      </c>
+      <c r="B22" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="111"/>
     </row>
     <row r="23" spans="1:4" customFormat="1" hidden="1">
       <c r="A23">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" customFormat="1" hidden="1">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>148</v>
+      <c r="B23" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="106"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="107">
+        <v>0</v>
+      </c>
+      <c r="B24" s="107" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12278,90 +12648,86 @@
         <v>0</v>
       </c>
       <c r="B26" s="107" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:4" customFormat="1" hidden="1">
       <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="105"/>
-    </row>
-    <row r="28" spans="1:4" hidden="1">
-      <c r="A28" s="107">
+      <c r="B27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" customFormat="1" hidden="1">
+      <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="107" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="110">
-        <v>43015</v>
+      <c r="B28" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="107">
         <v>0</v>
       </c>
-      <c r="B29" s="107" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="110">
-        <v>43015</v>
-      </c>
-      <c r="D29" s="107" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="107">
+      <c r="B30" s="107" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" customFormat="1" hidden="1">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="105"/>
+    </row>
+    <row r="32" spans="1:4" hidden="1">
+      <c r="A32" s="107">
+        <v>1</v>
+      </c>
+      <c r="B32" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="110">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="107">
         <v>0</v>
       </c>
-      <c r="B31" s="107" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" customFormat="1" hidden="1">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" s="105" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="105"/>
-    </row>
-    <row r="33" spans="1:3" customFormat="1" hidden="1">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" customFormat="1" hidden="1">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" customFormat="1" hidden="1">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" customFormat="1" hidden="1">
+      <c r="B33" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="110">
+        <v>43015</v>
+      </c>
+      <c r="D33" s="107" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="107">
+        <v>0</v>
+      </c>
+      <c r="B35" s="107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" customFormat="1" hidden="1">
       <c r="A36">
         <v>1</v>
       </c>
@@ -12370,42 +12736,40 @@
       </c>
       <c r="C36" s="105"/>
     </row>
-    <row r="37" spans="1:3" hidden="1">
-      <c r="A37" s="107">
+    <row r="37" spans="1:4" customFormat="1" hidden="1">
+      <c r="A37">
         <v>1</v>
       </c>
-      <c r="B37" s="107" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="110">
-        <v>43015</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1">
-      <c r="A38" s="107">
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" customFormat="1" hidden="1">
+      <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" s="107" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="110">
-        <v>43015</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="107">
-        <v>0</v>
-      </c>
-      <c r="B40" s="107" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1">
+      <c r="B38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" customFormat="1" hidden="1">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" customFormat="1" hidden="1">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="105"/>
+    </row>
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41" s="107">
         <v>1</v>
       </c>
@@ -12416,100 +12780,103 @@
         <v>43015</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4" hidden="1">
       <c r="A42" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="B42" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="110">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="107">
         <v>0</v>
       </c>
-      <c r="B43" s="107" t="s">
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="107">
+        <v>0</v>
+      </c>
+      <c r="B44" s="107" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1">
+      <c r="A45" s="107">
+        <v>1</v>
+      </c>
+      <c r="B45" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="110">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="107">
+        <v>0</v>
+      </c>
+      <c r="B47" s="107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" customFormat="1" hidden="1">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="105"/>
+    </row>
+    <row r="49" spans="1:3" customFormat="1" hidden="1">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" s="106" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" customFormat="1" hidden="1">
-      <c r="A44">
+      <c r="C49" s="106"/>
+    </row>
+    <row r="50" spans="1:3" customFormat="1" hidden="1">
+      <c r="A50">
         <v>1</v>
       </c>
-      <c r="B44" s="105" t="s">
-        <v>173</v>
-      </c>
-      <c r="C44" s="105"/>
-    </row>
-    <row r="45" spans="1:3" customFormat="1" hidden="1">
-      <c r="A45">
+      <c r="B50" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="105"/>
+    </row>
+    <row r="51" spans="1:3" hidden="1">
+      <c r="A51" s="107">
         <v>1</v>
       </c>
-      <c r="B45" s="106" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="106"/>
-    </row>
-    <row r="46" spans="1:3" customFormat="1" hidden="1">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" s="105"/>
-    </row>
-    <row r="47" spans="1:3" hidden="1">
-      <c r="A47" s="107">
-        <v>1</v>
-      </c>
-      <c r="B47" s="107" t="s">
-        <v>191</v>
-      </c>
-      <c r="C47" s="110">
+      <c r="B51" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="110">
         <v>43015</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="107">
-        <v>0</v>
-      </c>
-      <c r="B49" s="107" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1">
-      <c r="A50" s="107">
-        <v>1</v>
-      </c>
-      <c r="B50" s="107" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" s="110">
-        <v>43015</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="107">
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="107">
         <v>0</v>
       </c>
-      <c r="B52" s="107" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" customFormat="1" hidden="1">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>157</v>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="107">
+        <v>0</v>
+      </c>
+      <c r="B53" s="107" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:3" hidden="1">
@@ -12517,7 +12884,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="107" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C54" s="110">
         <v>43015</v>
@@ -12532,42 +12899,61 @@
       <c r="A56" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="107">
+      <c r="B56" s="107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" customFormat="1" hidden="1">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1">
+      <c r="A58" s="107">
+        <v>1</v>
+      </c>
+      <c r="B58" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="110">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="107">
+      <c r="B59" s="107" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" s="110">
+        <v>43046</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="107">
         <v>0</v>
       </c>
-      <c r="B58" s="107" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" customFormat="1" hidden="1">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="C59" s="105"/>
-    </row>
-    <row r="60" spans="1:3" customFormat="1" hidden="1">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" s="106" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="106"/>
+      <c r="B60" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="C60" s="110">
+        <v>43046</v>
+      </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="107">
         <v>0</v>
       </c>
+      <c r="B61" s="107" t="s">
+        <v>228</v>
+      </c>
+      <c r="C61" s="110">
+        <v>43046</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="107">
@@ -12578,142 +12964,144 @@
       <c r="A63" s="107">
         <v>0</v>
       </c>
-      <c r="B63" s="107" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="107">
         <v>0</v>
       </c>
-      <c r="B64" s="109" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="111"/>
-    </row>
-    <row r="65" spans="1:3">
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="107">
         <v>0</v>
       </c>
       <c r="B65" s="107" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="107">
-        <v>0</v>
-      </c>
-      <c r="B66" s="107" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="107">
-        <v>0</v>
-      </c>
-      <c r="B67" s="107" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" customFormat="1" hidden="1">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" s="105"/>
+    </row>
+    <row r="67" spans="1:4" customFormat="1" hidden="1">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="106"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="107">
         <v>0</v>
       </c>
-      <c r="B68" s="109" t="s">
-        <v>176</v>
-      </c>
-      <c r="C68" s="111"/>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" s="107">
         <v>0</v>
       </c>
       <c r="B70" s="107" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>159</v>
+      </c>
+      <c r="C70" s="110">
+        <v>43015</v>
+      </c>
+      <c r="D70" s="107" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="107">
         <v>0</v>
       </c>
-      <c r="B71" s="107" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="B71" s="109" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="111"/>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="B72" s="107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="107">
         <v>0</v>
       </c>
       <c r="B73" s="107" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="107">
         <v>0</v>
       </c>
-      <c r="B74" s="109" t="s">
-        <v>177</v>
-      </c>
-      <c r="C74" s="111"/>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="B74" s="107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="107">
         <v>0</v>
       </c>
       <c r="B75" s="109" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C75" s="111"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="B77" s="107" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="B78" s="107" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="107">
         <v>0</v>
       </c>
-      <c r="B79" s="107" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="107">
         <v>0</v>
       </c>
-      <c r="B80" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="C80" s="111"/>
+      <c r="B80" s="107" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="107">
         <v>0</v>
       </c>
       <c r="B81" s="109" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C81" s="111"/>
     </row>
@@ -12721,14 +13109,15 @@
       <c r="A82" s="107">
         <v>0</v>
       </c>
+      <c r="B82" s="109" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="111"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="107">
         <v>0</v>
       </c>
-      <c r="B83" s="107" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="107">
@@ -12739,21 +13128,70 @@
       <c r="A85" s="107">
         <v>0</v>
       </c>
-      <c r="B85" s="107" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="107">
         <v>0</v>
       </c>
-      <c r="B86" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="C86" s="111"/>
+      <c r="B86" s="107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="107">
+        <v>0</v>
+      </c>
+      <c r="B87" s="109" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="111"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="107">
+        <v>0</v>
+      </c>
+      <c r="B88" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" s="111"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="107">
+        <v>0</v>
+      </c>
+      <c r="B90" s="107" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="107">
+        <v>0</v>
+      </c>
+      <c r="B92" s="107" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="107">
+        <v>0</v>
+      </c>
+      <c r="B93" s="109" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="111"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B86">
+  <autoFilter ref="A1:B93">
     <filterColumn colId="0">
       <filters>
         <filter val="0"/>

--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Report-CashFlow" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="243">
   <si>
     <t>STATEMENT OF CASH FLOW</t>
   </si>
@@ -726,6 +726,45 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Cash Paid for Repair &amp; Maintenance</t>
+  </si>
+  <si>
+    <t>Cash Paid for Transportation</t>
+  </si>
+  <si>
+    <t>Cash Paid for Travelling</t>
+  </si>
+  <si>
+    <t>Cash Paid for Entertainment</t>
+  </si>
+  <si>
+    <t>Cash Paid for Bank Administration</t>
+  </si>
+  <si>
+    <t>Cash Paid for Freight Out</t>
+  </si>
+  <si>
+    <t>Cash Paid for Household &amp; Environment</t>
+  </si>
+  <si>
+    <t>Cash Paid for General Office Expense</t>
+  </si>
+  <si>
+    <t>Cash Paid for Training &amp; Recruitment</t>
+  </si>
+  <si>
+    <t>Cash Paid for Professional Association Fee</t>
+  </si>
+  <si>
+    <t>Cash Paid for Other Expenses</t>
+  </si>
+  <si>
+    <t>Effect of exchange rate changes on Cash &amp; Cash Equivalent (+)</t>
+  </si>
+  <si>
+    <t>Effect of exchange rate changes on Cash &amp; Cash Equivalent (-)</t>
   </si>
 </sst>
 </file>
@@ -1807,6 +1846,13 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1818,13 +1864,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -11239,22 +11278,22 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112" t="s">
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112" t="s">
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="91" t="s">
@@ -11289,22 +11328,22 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="113" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="114"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="113" t="s">
+      <c r="G5" s="117"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="114"/>
-      <c r="K5" s="115"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -11312,22 +11351,22 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112" t="s">
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112" t="s">
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="91" t="s">
@@ -11362,22 +11401,22 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="113" t="s">
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="114"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="113" t="s">
+      <c r="G11" s="117"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="114"/>
-      <c r="K11" s="115"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="118"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -11385,17 +11424,17 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112" t="s">
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="91" t="s">
@@ -11421,17 +11460,17 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="113" t="s">
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="114"/>
-      <c r="H17" s="115"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
@@ -11745,6 +11784,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -11755,12 +11800,6 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11770,8 +11809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11914,7 +11953,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -11925,7 +11964,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -11936,7 +11975,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -11947,7 +11986,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
@@ -11958,7 +11997,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -11969,7 +12008,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
@@ -11980,7 +12019,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -11991,7 +12030,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -12002,7 +12041,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -12013,7 +12052,7 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>239</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
@@ -12024,7 +12063,7 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
@@ -12123,7 +12162,7 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
@@ -12134,7 +12173,7 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="C33" t="s">
         <v>60</v>
@@ -12155,7 +12194,7 @@
   </sheetPr>
   <dimension ref="B3:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -12349,12 +12388,12 @@
       <c r="C34" t="s">
         <v>214</v>
       </c>
-      <c r="D34" s="116">
+      <c r="D34" s="112">
         <v>42737</v>
       </c>
       <c r="E34" s="94" t="str">
         <f>Account!B22</f>
-        <v>Cash Paid for  Professional Association Fee</v>
+        <v>Cash Paid for Professional Association Fee</v>
       </c>
       <c r="F34" t="s">
         <v>215</v>
@@ -12367,7 +12406,7 @@
       <c r="C35" t="s">
         <v>217</v>
       </c>
-      <c r="D35" s="116">
+      <c r="D35" s="112">
         <v>42737</v>
       </c>
     </row>
@@ -12377,30 +12416,30 @@
       </c>
     </row>
     <row r="40" spans="3:8">
-      <c r="C40" s="117" t="s">
+      <c r="C40" s="113" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="41" spans="3:8">
-      <c r="C41" s="117" t="s">
+      <c r="C41" s="113" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="42" spans="3:8">
-      <c r="C42" s="117"/>
+      <c r="C42" s="113"/>
     </row>
     <row r="43" spans="3:8">
-      <c r="C43" s="118" t="s">
+      <c r="C43" s="114" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="44" spans="3:8">
-      <c r="C44" s="117" t="s">
+      <c r="C44" s="113" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="45" spans="3:8">
-      <c r="C45" s="117" t="s">
+      <c r="C45" s="113" t="s">
         <v>223</v>
       </c>
     </row>
@@ -12415,7 +12454,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>

--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Report-CashFlow" sheetId="1" r:id="rId1"/>
     <sheet name="Report Others" sheetId="4" r:id="rId2"/>
     <sheet name="Account" sheetId="3" r:id="rId3"/>
     <sheet name="Add-DataEntry" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Invoice" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$A$1:$B$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet1!$A$1:$B$93</definedName>
     <definedName name="CF_JFI">[1]Database!$D$3:$G$503</definedName>
     <definedName name="COA">[2]COA!$A$2:$A$139</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="274">
   <si>
     <t>STATEMENT OF CASH FLOW</t>
   </si>
@@ -765,6 +766,99 @@
   </si>
   <si>
     <t>Effect of exchange rate changes on Cash &amp; Cash Equivalent (-)</t>
+  </si>
+  <si>
+    <t>taowi</t>
+  </si>
+  <si>
+    <t>===========================</t>
+  </si>
+  <si>
+    <t>ar prepayment =&gt; ar receipt</t>
+  </si>
+  <si>
+    <t>ap prepayment =&gt; payment</t>
+  </si>
+  <si>
+    <t>plan_type:</t>
+  </si>
+  <si>
+    <t>0 - SO/PO Plan</t>
+  </si>
+  <si>
+    <t>1 - Clearance Plan</t>
+  </si>
+  <si>
+    <t>2 - Import Plan</t>
+  </si>
+  <si>
+    <t>3 - Other Plan</t>
+  </si>
+  <si>
+    <t>referensi untuk modul invoice:</t>
+  </si>
+  <si>
+    <t>current design:</t>
+  </si>
+  <si>
+    <t>should be:</t>
+  </si>
+  <si>
+    <t>doc_type:</t>
+  </si>
+  <si>
+    <t>0 - SO Plan</t>
+  </si>
+  <si>
+    <t>1 - PO Plan</t>
+  </si>
+  <si>
+    <t>2 - Clearance Plan</t>
+  </si>
+  <si>
+    <t>3 - Import Plan</t>
+  </si>
+  <si>
+    <t>4 - Other Inflow Plan</t>
+  </si>
+  <si>
+    <t>5 - Other Outflow Plan</t>
+  </si>
+  <si>
+    <t>order_id &amp; other_id</t>
+  </si>
+  <si>
+    <t>ref_id</t>
+  </si>
+  <si>
+    <t>ref_line_id</t>
+  </si>
+  <si>
+    <t>order_plan_id, order_plan_clearance_id, order_plan_import_id &amp; ar_ap_plan_id</t>
+  </si>
+  <si>
+    <t>is_inflow</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>is_sotrx</t>
+  </si>
+  <si>
+    <t>order_plan_id</t>
+  </si>
+  <si>
+    <t>order_plan_clearance_id</t>
+  </si>
+  <si>
+    <t>order_plan_import_id</t>
+  </si>
+  <si>
+    <t>ar_ap_plan_id</t>
+  </si>
+  <si>
+    <t>ar_ap_id</t>
   </si>
 </sst>
 </file>
@@ -782,7 +876,7 @@
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,6 +968,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1677,7 +1779,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1865,6 +1967,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -11784,12 +11888,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -11800,6 +11898,12 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11809,7 +11913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -12451,6 +12555,176 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="119" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="119" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="119" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="120" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="119" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" s="120" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D93"/>
   <sheetViews>

--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -31,12 +31,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Report-CashFlow'!$B$2:$P$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report-CashFlow'!$B:$C</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="269">
   <si>
     <t>STATEMENT OF CASH FLOW</t>
   </si>
@@ -780,21 +780,6 @@
     <t>ap prepayment =&gt; payment</t>
   </si>
   <si>
-    <t>plan_type:</t>
-  </si>
-  <si>
-    <t>0 - SO/PO Plan</t>
-  </si>
-  <si>
-    <t>1 - Clearance Plan</t>
-  </si>
-  <si>
-    <t>2 - Import Plan</t>
-  </si>
-  <si>
-    <t>3 - Other Plan</t>
-  </si>
-  <si>
     <t>referensi untuk modul invoice:</t>
   </si>
   <si>
@@ -807,24 +792,6 @@
     <t>doc_type:</t>
   </si>
   <si>
-    <t>0 - SO Plan</t>
-  </si>
-  <si>
-    <t>1 - PO Plan</t>
-  </si>
-  <si>
-    <t>2 - Clearance Plan</t>
-  </si>
-  <si>
-    <t>3 - Import Plan</t>
-  </si>
-  <si>
-    <t>4 - Other Inflow Plan</t>
-  </si>
-  <si>
-    <t>5 - Other Outflow Plan</t>
-  </si>
-  <si>
     <t>order_id &amp; other_id</t>
   </si>
   <si>
@@ -843,9 +810,6 @@
     <t>order_id</t>
   </si>
   <si>
-    <t>is_sotrx</t>
-  </si>
-  <si>
     <t>order_plan_id</t>
   </si>
   <si>
@@ -859,12 +823,33 @@
   </si>
   <si>
     <t>ar_ap_id</t>
+  </si>
+  <si>
+    <t>1 - Invoice Customer</t>
+  </si>
+  <si>
+    <t>2 - Invoice Vendor</t>
+  </si>
+  <si>
+    <t>5 - Invoice Inflow</t>
+  </si>
+  <si>
+    <t>6 - Invoice Outflow</t>
+  </si>
+  <si>
+    <t>3 - Invoice Clearance</t>
+  </si>
+  <si>
+    <t>4 - Invoice Import</t>
+  </si>
+  <si>
+    <t>Kalo mau model begini, desain ramping tapi agak sulit untuk di tracing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1955,6 +1940,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1967,8 +1954,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -11382,22 +11367,22 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115" t="s">
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115" t="s">
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="91" t="s">
@@ -11432,22 +11417,22 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="116" t="s">
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="117"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="116" t="s">
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="118"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="120"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -11455,22 +11440,22 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115" t="s">
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115" t="s">
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="91" t="s">
@@ -11505,22 +11490,22 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="116" t="s">
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="118" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="116" t="s">
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="117"/>
-      <c r="K11" s="118"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="120"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -11528,17 +11513,17 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115" t="s">
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="91" t="s">
@@ -11564,17 +11549,17 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="116" t="s">
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="120"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
@@ -11888,6 +11873,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -11898,12 +11889,6 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12555,10 +12540,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B37"/>
+  <dimension ref="A4:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12568,152 +12553,160 @@
   <sheetData>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>247</v>
+      <c r="B8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>267</v>
+      <c r="B13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>254</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="119" t="s">
-        <v>266</v>
+      <c r="A21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="119" t="s">
+      <c r="A22" s="115" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>256</v>
+      <c r="A23" s="115" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="B29" s="120" t="s">
-        <v>262</v>
+      <c r="B29" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="119" t="s">
-        <v>264</v>
-      </c>
-      <c r="B30" s="120" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>243</v>
+      <c r="A30" s="115" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="115" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" s="116" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>246</v>
       </c>
     </row>
@@ -12728,7 +12721,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>

--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Report-CashFlow" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,18 @@
     <sheet name="Account" sheetId="3" r:id="rId3"/>
     <sheet name="Add-DataEntry" sheetId="5" r:id="rId4"/>
     <sheet name="Invoice" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="CashBank" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet1!$A$1:$B$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!$A$1:$B$93</definedName>
     <definedName name="CF_JFI">[1]Database!$D$3:$G$503</definedName>
     <definedName name="COA">[2]COA!$A$2:$A$139</definedName>
+    <definedName name="_xlnm.Database" localSheetId="5">#REF!</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Report-CashFlow'!$B$2:$P$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report-CashFlow'!$B:$C</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="272">
   <si>
     <t>STATEMENT OF CASH FLOW</t>
   </si>
@@ -844,6 +846,15 @@
   </si>
   <si>
     <t>Kalo mau model begini, desain ramping tapi agak sulit untuk di tracing</t>
+  </si>
+  <si>
+    <t>referensi untuk modul Cash/Bank:</t>
+  </si>
+  <si>
+    <t>3 - Other Receipt</t>
+  </si>
+  <si>
+    <t>4 - Other Payment</t>
   </si>
 </sst>
 </file>
@@ -11873,12 +11884,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -11889,6 +11894,12 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12542,7 +12553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -12717,6 +12728,90 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D93"/>

--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Report-CashFlow" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Invoice" sheetId="7" r:id="rId5"/>
     <sheet name="CashBank" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
+    <sheet name="Simulation" sheetId="9" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!$A$1:$B$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!$A$1:$B$101</definedName>
     <definedName name="CF_JFI">[1]Database!$D$3:$G$503</definedName>
     <definedName name="COA">[2]COA!$A$2:$A$139</definedName>
     <definedName name="_xlnm.Database" localSheetId="5">#REF!</definedName>
@@ -33,12 +34,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Report-CashFlow'!$B$2:$P$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report-CashFlow'!$B:$C</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="284">
   <si>
     <t>STATEMENT OF CASH FLOW</t>
   </si>
@@ -533,9 +534,6 @@
   </si>
   <si>
     <t xml:space="preserve">- </t>
-  </si>
-  <si>
-    <t>Bank Payment/Bank Received</t>
   </si>
   <si>
     <t>REPORT:</t>
@@ -719,9 +717,6 @@
     <t>customer top</t>
   </si>
   <si>
-    <t>plan received date &lt;== doc_date dirubah menjadi ini</t>
-  </si>
-  <si>
     <t>vendor top</t>
   </si>
   <si>
@@ -855,12 +850,54 @@
   </si>
   <si>
     <t>4 - Other Payment</t>
+  </si>
+  <si>
+    <t>Status delivery complete</t>
+  </si>
+  <si>
+    <t>moving ke report</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>SO-TEST-01</t>
+  </si>
+  <si>
+    <t>SO-TEST-02</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>tambah field: Received Plan Date</t>
+  </si>
+  <si>
+    <t>Received Plan Date &lt;== doc_date dirubah menjadi ini</t>
+  </si>
+  <si>
+    <t>line belum ke filter</t>
+  </si>
+  <si>
+    <t>Cash/Bank receive line:</t>
+  </si>
+  <si>
+    <t>Cash/Bank payment line:</t>
+  </si>
+  <si>
+    <t>tambah field: account_id</t>
+  </si>
+  <si>
+    <t>account_id otomatis ambil dari invoice</t>
+  </si>
+  <si>
+    <t>Bank Payment/Bank Received:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -11884,6 +11921,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -11894,12 +11937,6 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11927,7 +11964,7 @@
         <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="2:5">
@@ -12053,7 +12090,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -12064,7 +12101,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -12075,7 +12112,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -12086,7 +12123,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
@@ -12097,7 +12134,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -12108,7 +12145,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
@@ -12119,7 +12156,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -12130,7 +12167,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -12141,7 +12178,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -12152,7 +12189,7 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
@@ -12163,7 +12200,7 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
@@ -12262,7 +12299,7 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
@@ -12273,7 +12310,7 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C33" t="s">
         <v>60</v>
@@ -12359,7 +12396,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="C13" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="92" t="s">
         <v>131</v>
@@ -12397,55 +12434,55 @@
     </row>
     <row r="19" spans="3:5">
       <c r="C19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" t="s">
         <v>209</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>210</v>
-      </c>
-      <c r="E26" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -12458,35 +12495,35 @@
     </row>
     <row r="31" spans="3:5">
       <c r="C31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="3:8">
       <c r="C33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D33" t="s">
         <v>201</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" t="s">
         <v>202</v>
       </c>
-      <c r="E33" t="s">
-        <v>216</v>
-      </c>
-      <c r="F33" t="s">
-        <v>205</v>
-      </c>
-      <c r="G33" t="s">
-        <v>203</v>
-      </c>
       <c r="H33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="3:8">
       <c r="C34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" s="112">
         <v>42737</v>
@@ -12496,7 +12533,7 @@
         <v>Cash Paid for Professional Association Fee</v>
       </c>
       <c r="F34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H34">
         <v>50000</v>
@@ -12504,7 +12541,7 @@
     </row>
     <row r="35" spans="3:8">
       <c r="C35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D35" s="112">
         <v>42737</v>
@@ -12517,12 +12554,12 @@
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="113" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="3:8">
       <c r="C41" s="113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="3:8">
@@ -12535,12 +12572,12 @@
     </row>
     <row r="44" spans="3:8">
       <c r="C44" s="113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="3:8">
       <c r="C45" s="113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -12564,161 +12601,161 @@
   <sheetData>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="115" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="115" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="115" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B30" s="116" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="115" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B31" s="116" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -12731,7 +12768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -12742,67 +12779,67 @@
   <sheetData>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -12814,10 +12851,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12829,18 +12866,18 @@
     <col min="5" max="16384" width="9.140625" style="107"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="107" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="107" t="s">
-        <v>182</v>
-      </c>
       <c r="C1" s="110" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" customFormat="1" hidden="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" customFormat="1" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12849,7 +12886,7 @@
       </c>
       <c r="C2" s="106"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="107">
         <v>0</v>
       </c>
@@ -12857,7 +12894,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" hidden="1">
+    <row r="4" spans="1:4" customFormat="1" hidden="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -12866,7 +12903,7 @@
       </c>
       <c r="C4" s="106"/>
     </row>
-    <row r="5" spans="1:3" customFormat="1" hidden="1">
+    <row r="5" spans="1:4" customFormat="1" hidden="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -12875,74 +12912,80 @@
       </c>
       <c r="C5" s="106"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" s="107" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="107">
         <v>0</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" hidden="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" s="107">
         <v>1</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="110">
         <v>43015</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="107">
         <v>0</v>
       </c>
       <c r="B10" s="107" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" s="110">
         <v>43046</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="107">
         <v>0</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11" s="110">
         <v>43046</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="107">
         <v>0</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="C12" s="110">
         <v>43046</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="107">
         <v>0</v>
       </c>
@@ -12950,7 +12993,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:3" customFormat="1" hidden="1">
+    <row r="15" spans="1:4" customFormat="1" hidden="1">
       <c r="A15">
         <v>1</v>
       </c>
@@ -12959,7 +13002,7 @@
       </c>
       <c r="C15" s="106"/>
     </row>
-    <row r="16" spans="1:3" customFormat="1" hidden="1">
+    <row r="16" spans="1:4" customFormat="1" hidden="1">
       <c r="A16">
         <v>1</v>
       </c>
@@ -12982,13 +13025,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="107" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="110">
         <v>43015</v>
       </c>
       <c r="D18" s="108" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -13018,106 +13061,109 @@
         <v>0</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="111"/>
     </row>
-    <row r="23" spans="1:4" customFormat="1" hidden="1">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="106"/>
+    <row r="23" spans="1:4">
+      <c r="A23" s="107">
+        <v>0</v>
+      </c>
+      <c r="B23" s="109" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="111">
+        <v>42934</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="107">
         <v>0</v>
       </c>
-      <c r="B24" s="107" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="107">
-        <v>0</v>
-      </c>
+      <c r="B24" s="109" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="111">
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" customFormat="1" hidden="1">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="106"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="107">
         <v>0</v>
       </c>
       <c r="B26" s="107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="107">
+        <v>0</v>
+      </c>
+      <c r="B28" s="107" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:4" customFormat="1" hidden="1">
-      <c r="A27">
+    <row r="29" spans="1:4" customFormat="1" hidden="1">
+      <c r="A29">
         <v>1</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:4" customFormat="1" hidden="1">
-      <c r="A28">
+    <row r="30" spans="1:4" customFormat="1" hidden="1">
+      <c r="A30">
         <v>1</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="107">
+    <row r="31" spans="1:4">
+      <c r="A31" s="107">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="107">
+    <row r="32" spans="1:4">
+      <c r="A32" s="107">
         <v>0</v>
       </c>
-      <c r="B30" s="107" t="s">
+      <c r="B32" s="107" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:4" customFormat="1" hidden="1">
-      <c r="A31">
+    <row r="33" spans="1:4" customFormat="1" hidden="1">
+      <c r="A33">
         <v>1</v>
       </c>
-      <c r="B31" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="105"/>
-    </row>
-    <row r="32" spans="1:4" hidden="1">
-      <c r="A32" s="107">
+      <c r="B33" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="105"/>
+    </row>
+    <row r="34" spans="1:4" hidden="1">
+      <c r="A34" s="107">
         <v>1</v>
       </c>
-      <c r="B32" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="110">
+      <c r="B34" s="107" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="110">
         <v>43015</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="107">
-        <v>0</v>
-      </c>
-      <c r="B33" s="107" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" s="110">
-        <v>43015</v>
-      </c>
-      <c r="D33" s="107" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="107">
-        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -13125,224 +13171,221 @@
         <v>0</v>
       </c>
       <c r="B35" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="110">
+        <v>43015</v>
+      </c>
+      <c r="D35" s="107" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="107">
+        <v>0</v>
+      </c>
+      <c r="B37" s="107" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" customFormat="1" hidden="1">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="105"/>
-    </row>
-    <row r="37" spans="1:4" customFormat="1" hidden="1">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:4" customFormat="1" hidden="1">
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38" t="s">
-        <v>151</v>
-      </c>
+      <c r="B38" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="105"/>
     </row>
     <row r="39" spans="1:4" customFormat="1" hidden="1">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:4" customFormat="1" hidden="1">
       <c r="A40">
         <v>1</v>
       </c>
-      <c r="B40" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="105"/>
-    </row>
-    <row r="41" spans="1:4" hidden="1">
-      <c r="A41" s="107">
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" customFormat="1" hidden="1">
+      <c r="A41">
         <v>1</v>
       </c>
-      <c r="B41" s="107" t="s">
-        <v>189</v>
-      </c>
-      <c r="C41" s="110">
+      <c r="B41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" customFormat="1" hidden="1">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="105"/>
+    </row>
+    <row r="43" spans="1:4" hidden="1">
+      <c r="A43" s="107">
+        <v>1</v>
+      </c>
+      <c r="B43" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="110">
         <v>43015</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1">
-      <c r="A42" s="107">
+    <row r="44" spans="1:4" hidden="1">
+      <c r="A44" s="107">
         <v>1</v>
       </c>
-      <c r="B42" s="107" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="110">
+      <c r="B44" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="110">
         <v>43015</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="107">
+    <row r="45" spans="1:4">
+      <c r="A45" s="107">
         <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="107">
-        <v>0</v>
-      </c>
-      <c r="B44" s="107" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1">
-      <c r="A45" s="107">
-        <v>1</v>
-      </c>
-      <c r="B45" s="107" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" s="110">
-        <v>43015</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" s="107" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1">
       <c r="A47" s="107">
+        <v>1</v>
+      </c>
+      <c r="B47" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="110">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="107">
         <v>0</v>
       </c>
-      <c r="B47" s="107" t="s">
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="107">
+        <v>0</v>
+      </c>
+      <c r="B49" s="107" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" customFormat="1" hidden="1">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" s="105" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="105"/>
-    </row>
-    <row r="49" spans="1:3" customFormat="1" hidden="1">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49" s="106" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="106"/>
     </row>
     <row r="50" spans="1:3" customFormat="1" hidden="1">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50" s="105" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C50" s="105"/>
     </row>
-    <row r="51" spans="1:3" hidden="1">
-      <c r="A51" s="107">
+    <row r="51" spans="1:3" customFormat="1" hidden="1">
+      <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51" s="107" t="s">
-        <v>190</v>
-      </c>
-      <c r="C51" s="110">
+      <c r="B51" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="106"/>
+    </row>
+    <row r="52" spans="1:3" customFormat="1" hidden="1">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="105"/>
+    </row>
+    <row r="53" spans="1:3" hidden="1">
+      <c r="A53" s="107">
+        <v>1</v>
+      </c>
+      <c r="B53" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="110">
         <v>43015</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="107">
+    <row r="54" spans="1:3">
+      <c r="A54" s="107">
         <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="107">
-        <v>0</v>
-      </c>
-      <c r="B53" s="107" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1">
-      <c r="A54" s="107">
-        <v>1</v>
-      </c>
-      <c r="B54" s="107" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" s="110">
-        <v>43015</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="107">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="B55" s="107" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1">
       <c r="A56" s="107">
+        <v>1</v>
+      </c>
+      <c r="B56" s="107" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="110">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="107">
         <v>0</v>
       </c>
-      <c r="B56" s="107" t="s">
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="107">
+        <v>0</v>
+      </c>
+      <c r="B58" s="107" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:3" customFormat="1" hidden="1">
-      <c r="A57">
+    <row r="59" spans="1:3" customFormat="1" hidden="1">
+      <c r="A59">
         <v>1</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1">
-      <c r="A58" s="107">
+    <row r="60" spans="1:3" hidden="1">
+      <c r="A60" s="107">
         <v>1</v>
       </c>
-      <c r="B58" s="107" t="s">
-        <v>191</v>
-      </c>
-      <c r="C58" s="110">
+      <c r="B60" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" s="110">
         <v>43015</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="107">
-        <v>0</v>
-      </c>
-      <c r="B59" s="107" t="s">
-        <v>224</v>
-      </c>
-      <c r="C59" s="110">
-        <v>43046</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="107">
-        <v>0</v>
-      </c>
-      <c r="B60" s="107" t="s">
-        <v>227</v>
-      </c>
-      <c r="C60" s="110">
-        <v>43046</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -13350,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="107" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C61" s="110">
         <v>43046</v>
@@ -13360,11 +13403,23 @@
       <c r="A62" s="107">
         <v>0</v>
       </c>
+      <c r="B62" s="107" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" s="110">
+        <v>43046</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="107">
         <v>0</v>
       </c>
+      <c r="B63" s="107" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="110">
+        <v>43046</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="107">
@@ -13375,155 +13430,155 @@
       <c r="A65" s="107">
         <v>0</v>
       </c>
-      <c r="B65" s="107" t="s">
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="107">
+        <v>0</v>
+      </c>
+      <c r="B67" s="107" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:4" customFormat="1" hidden="1">
-      <c r="A66">
+    <row r="68" spans="1:4" customFormat="1" hidden="1">
+      <c r="A68">
         <v>1</v>
       </c>
-      <c r="B66" s="105" t="s">
-        <v>173</v>
-      </c>
-      <c r="C66" s="105"/>
-    </row>
-    <row r="67" spans="1:4" customFormat="1" hidden="1">
-      <c r="A67">
+      <c r="B68" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="105"/>
+    </row>
+    <row r="69" spans="1:4" customFormat="1" hidden="1">
+      <c r="A69">
         <v>1</v>
       </c>
-      <c r="B67" s="106" t="s">
+      <c r="B69" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="106"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="107">
-        <v>0</v>
-      </c>
+      <c r="C69" s="106"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="107">
         <v>0</v>
       </c>
-      <c r="B70" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="C70" s="110">
-        <v>43015</v>
-      </c>
-      <c r="D70" s="107" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="107">
         <v>0</v>
       </c>
-      <c r="B71" s="109" t="s">
-        <v>174</v>
-      </c>
-      <c r="C71" s="111"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="107">
         <v>0</v>
       </c>
       <c r="B72" s="107" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="C72" s="110">
+        <v>43015</v>
+      </c>
+      <c r="D72" s="107" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="107">
         <v>0</v>
       </c>
-      <c r="B73" s="107" t="s">
-        <v>161</v>
-      </c>
+      <c r="B73" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="111"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="107">
         <v>0</v>
       </c>
       <c r="B74" s="107" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="107">
         <v>0</v>
       </c>
-      <c r="B75" s="109" t="s">
-        <v>175</v>
-      </c>
-      <c r="C75" s="111"/>
+      <c r="B75" s="107" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="107">
         <v>0</v>
       </c>
+      <c r="B76" s="107" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="107">
         <v>0</v>
       </c>
-      <c r="B77" s="107" t="s">
-        <v>163</v>
-      </c>
+      <c r="B77" s="109" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="111"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="107">
         <v>0</v>
       </c>
-      <c r="B78" s="107" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="107">
         <v>0</v>
       </c>
+      <c r="B79" s="107" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="107">
         <v>0</v>
       </c>
       <c r="B80" s="107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="107">
         <v>0</v>
       </c>
-      <c r="B81" s="109" t="s">
-        <v>176</v>
-      </c>
-      <c r="C81" s="111"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="107">
         <v>0</v>
       </c>
-      <c r="B82" s="109" t="s">
-        <v>177</v>
-      </c>
-      <c r="C82" s="111"/>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="B82" s="107" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1">
       <c r="A83" s="107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="B83" s="109" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="111"/>
+    </row>
+    <row r="84" spans="1:3" hidden="1">
       <c r="A84" s="107">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B84" s="109" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="111"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="107">
@@ -13535,26 +13590,30 @@
         <v>0</v>
       </c>
       <c r="B86" s="107" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="107">
         <v>0</v>
       </c>
-      <c r="B87" s="109" t="s">
-        <v>178</v>
-      </c>
-      <c r="C87" s="111"/>
+      <c r="B87" s="107" t="s">
+        <v>278</v>
+      </c>
+      <c r="C87" s="111">
+        <v>42934</v>
+      </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="107">
         <v>0</v>
       </c>
-      <c r="B88" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="C88" s="111"/>
+      <c r="B88" s="107" t="s">
+        <v>282</v>
+      </c>
+      <c r="C88" s="111">
+        <v>42934</v>
+      </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="107">
@@ -13566,33 +13625,99 @@
         <v>0</v>
       </c>
       <c r="B90" s="107" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="107">
         <v>0</v>
       </c>
+      <c r="B91" s="107" t="s">
+        <v>278</v>
+      </c>
+      <c r="C91" s="111">
+        <v>42934</v>
+      </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="107">
         <v>0</v>
       </c>
       <c r="B92" s="107" t="s">
-        <v>168</v>
+        <v>282</v>
+      </c>
+      <c r="C92" s="111">
+        <v>42934</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="107">
         <v>0</v>
       </c>
-      <c r="B93" s="109" t="s">
-        <v>180</v>
-      </c>
-      <c r="C93" s="111"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="107">
+        <v>0</v>
+      </c>
+      <c r="B94" s="107" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="107">
+        <v>0</v>
+      </c>
+      <c r="B95" s="109" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" s="111"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="107">
+        <v>0</v>
+      </c>
+      <c r="B96" s="109" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="111"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="107">
+        <v>0</v>
+      </c>
+      <c r="B98" s="107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="107">
+        <v>0</v>
+      </c>
+      <c r="B100" s="107" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="107">
+        <v>0</v>
+      </c>
+      <c r="B101" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="C101" s="111"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B93">
+  <autoFilter ref="A1:B101">
     <filterColumn colId="0">
       <filters>
         <filter val="0"/>
@@ -13602,4 +13727,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="285">
   <si>
     <t>STATEMENT OF CASH FLOW</t>
   </si>
@@ -471,12 +471,6 @@
   </si>
   <si>
     <t>(v) - Ditambah SO No, lalu jadikan mandatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- LINE: </t>
-  </si>
-  <si>
-    <t>Major Change:</t>
   </si>
   <si>
     <t>Cash-in/out flow dibuat nge-link, plan yang di invoice mengambil data plan yang di SO (tidak usah ada item categorinya)</t>
@@ -630,9 +624,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>SO Plan:</t>
-  </si>
-  <si>
     <t>is_receipt</t>
   </si>
   <si>
@@ -892,6 +883,18 @@
   </si>
   <si>
     <t>Bank Payment/Bank Received:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO Plan: </t>
+  </si>
+  <si>
+    <t>cf_sorder_plan_edit.tpl</t>
+  </si>
+  <si>
+    <t>cf_sorder_line_edit.tpl</t>
+  </si>
+  <si>
+    <t>cf_sinvoice_edit.tpl</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1815,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2001,6 +2004,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -11921,12 +11927,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -11937,6 +11937,12 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11964,7 +11970,7 @@
         <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="2:5">
@@ -12090,7 +12096,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
@@ -12101,7 +12107,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -12112,7 +12118,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -12123,7 +12129,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
         <v>60</v>
@@ -12134,7 +12140,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -12145,7 +12151,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
@@ -12156,7 +12162,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -12167,7 +12173,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -12178,7 +12184,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" t="s">
         <v>60</v>
@@ -12189,7 +12195,7 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
@@ -12200,7 +12206,7 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
@@ -12299,7 +12305,7 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
@@ -12310,7 +12316,7 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C33" t="s">
         <v>60</v>
@@ -12396,7 +12402,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="C13" s="92" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D13" s="92" t="s">
         <v>131</v>
@@ -12434,55 +12440,55 @@
     </row>
     <row r="19" spans="3:5">
       <c r="C19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" t="s">
         <v>203</v>
-      </c>
-      <c r="E24" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" t="s">
         <v>202</v>
       </c>
-      <c r="D25" t="s">
-        <v>205</v>
-      </c>
       <c r="E25" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="C26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -12495,35 +12501,35 @@
     </row>
     <row r="31" spans="3:5">
       <c r="C31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="3:8">
       <c r="C33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" t="s">
         <v>201</v>
       </c>
-      <c r="E33" t="s">
-        <v>215</v>
-      </c>
-      <c r="F33" t="s">
-        <v>204</v>
-      </c>
       <c r="G33" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="3:8">
       <c r="C34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D34" s="112">
         <v>42737</v>
@@ -12533,7 +12539,7 @@
         <v>Cash Paid for Professional Association Fee</v>
       </c>
       <c r="F34" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H34">
         <v>50000</v>
@@ -12541,7 +12547,7 @@
     </row>
     <row r="35" spans="3:8">
       <c r="C35" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D35" s="112">
         <v>42737</v>
@@ -12554,12 +12560,12 @@
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="3:8">
       <c r="C41" s="113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="3:8">
@@ -12572,12 +12578,12 @@
     </row>
     <row r="44" spans="3:8">
       <c r="C44" s="113" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="3:8">
       <c r="C45" s="113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -12601,161 +12607,161 @@
   <sheetData>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="115" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="115" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="115" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B30" s="116" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="115" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B31" s="116" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -12779,67 +12785,67 @@
   <sheetData>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -12853,8 +12859,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12868,13 +12874,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="107" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" s="107" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C1" s="110" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" customFormat="1" hidden="1">
@@ -12890,8 +12896,11 @@
       <c r="A3" s="107">
         <v>0</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="121" t="s">
         <v>135</v>
+      </c>
+      <c r="D3" s="121" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:4" customFormat="1" hidden="1">
@@ -12912,15 +12921,15 @@
       </c>
       <c r="C5" s="106"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1">
       <c r="A6" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="107" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D6" s="107" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12932,8 +12941,11 @@
       <c r="A8" s="107">
         <v>0</v>
       </c>
-      <c r="B8" s="107" t="s">
-        <v>196</v>
+      <c r="B8" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:4" hidden="1">
@@ -12941,7 +12953,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" s="110">
         <v>43015</v>
@@ -12952,7 +12964,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="107" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C10" s="110">
         <v>43046</v>
@@ -12963,7 +12975,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C11" s="110">
         <v>43046</v>
@@ -12974,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C12" s="110">
         <v>43046</v>
@@ -12989,7 +13001,7 @@
       <c r="A14" s="107">
         <v>0</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="121" t="s">
         <v>138</v>
       </c>
     </row>
@@ -13020,18 +13032,18 @@
       </c>
       <c r="C17" s="107"/>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="30" hidden="1">
       <c r="A18" s="107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="107" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C18" s="110">
         <v>43015</v>
       </c>
       <c r="D18" s="108" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -13043,8 +13055,11 @@
       <c r="A20" s="107">
         <v>0</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="121" t="s">
         <v>142</v>
+      </c>
+      <c r="D20" s="121" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:4" customFormat="1" hidden="1">
@@ -13061,7 +13076,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="111"/>
     </row>
@@ -13070,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C23" s="111">
         <v>42934</v>
@@ -13081,7 +13096,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C24" s="111">
         <v>42934</v>
@@ -13100,9 +13115,6 @@
       <c r="A26" s="107">
         <v>0</v>
       </c>
-      <c r="B26" s="107" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="107">
@@ -13113,16 +13125,13 @@
       <c r="A28" s="107">
         <v>0</v>
       </c>
-      <c r="B28" s="107" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="29" spans="1:4" customFormat="1" hidden="1">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:4" customFormat="1" hidden="1">
@@ -13130,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -13142,8 +13151,8 @@
       <c r="A32" s="107">
         <v>0</v>
       </c>
-      <c r="B32" s="107" t="s">
-        <v>148</v>
+      <c r="B32" s="121" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:4" customFormat="1" hidden="1">
@@ -13151,7 +13160,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="105" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C33" s="105"/>
     </row>
@@ -13160,7 +13169,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="107" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C34" s="110">
         <v>43015</v>
@@ -13171,13 +13180,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="107" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C35" s="110">
         <v>43015</v>
       </c>
       <c r="D35" s="107" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -13189,8 +13198,8 @@
       <c r="A37" s="107">
         <v>0</v>
       </c>
-      <c r="B37" s="107" t="s">
-        <v>149</v>
+      <c r="B37" s="121" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:4" customFormat="1" hidden="1">
@@ -13198,7 +13207,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="105" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C38" s="105"/>
     </row>
@@ -13207,7 +13216,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:4" customFormat="1" hidden="1">
@@ -13215,7 +13224,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:4" customFormat="1" hidden="1">
@@ -13223,7 +13232,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:4" customFormat="1" hidden="1">
@@ -13231,7 +13240,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="105" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C42" s="105"/>
     </row>
@@ -13240,7 +13249,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="107" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C43" s="110">
         <v>43015</v>
@@ -13251,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="107" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C44" s="110">
         <v>43015</v>
@@ -13266,8 +13275,8 @@
       <c r="A46" s="107">
         <v>0</v>
       </c>
-      <c r="B46" s="107" t="s">
-        <v>186</v>
+      <c r="B46" s="121" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:4" hidden="1">
@@ -13275,7 +13284,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="107" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C47" s="110">
         <v>43015</v>
@@ -13290,8 +13299,8 @@
       <c r="A49" s="107">
         <v>0</v>
       </c>
-      <c r="B49" s="107" t="s">
-        <v>153</v>
+      <c r="B49" s="121" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:3" customFormat="1" hidden="1">
@@ -13299,7 +13308,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C50" s="105"/>
     </row>
@@ -13308,7 +13317,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C51" s="106"/>
     </row>
@@ -13317,7 +13326,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="105" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C52" s="105"/>
     </row>
@@ -13326,7 +13335,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="107" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C53" s="110">
         <v>43015</v>
@@ -13341,8 +13350,8 @@
       <c r="A55" s="107">
         <v>0</v>
       </c>
-      <c r="B55" s="107" t="s">
-        <v>193</v>
+      <c r="B55" s="121" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:3" hidden="1">
@@ -13350,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="107" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C56" s="110">
         <v>43015</v>
@@ -13365,8 +13374,8 @@
       <c r="A58" s="107">
         <v>0</v>
       </c>
-      <c r="B58" s="107" t="s">
-        <v>155</v>
+      <c r="B58" s="121" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:3" customFormat="1" hidden="1">
@@ -13374,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:3" hidden="1">
@@ -13382,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="107" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C60" s="110">
         <v>43015</v>
@@ -13393,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="107" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C61" s="110">
         <v>43046</v>
@@ -13404,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="107" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C62" s="110">
         <v>43046</v>
@@ -13415,7 +13424,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="107" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C63" s="110">
         <v>43046</v>
@@ -13440,8 +13449,8 @@
       <c r="A67" s="107">
         <v>0</v>
       </c>
-      <c r="B67" s="107" t="s">
-        <v>157</v>
+      <c r="B67" s="121" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:4" customFormat="1" hidden="1">
@@ -13449,7 +13458,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="105" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C68" s="105"/>
     </row>
@@ -13458,7 +13467,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="106" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C69" s="106"/>
     </row>
@@ -13472,59 +13481,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" hidden="1">
       <c r="A72" s="107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B72" s="107" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C72" s="110">
         <v>43015</v>
       </c>
       <c r="D72" s="107" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1">
       <c r="A73" s="107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B73" s="109" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C73" s="111"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" hidden="1">
       <c r="A74" s="107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B74" s="107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1">
+      <c r="A75" s="107">
+        <v>2</v>
+      </c>
+      <c r="B75" s="107" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1">
+      <c r="A76" s="107">
+        <v>2</v>
+      </c>
+      <c r="B76" s="107" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="107">
-        <v>0</v>
-      </c>
-      <c r="B75" s="107" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="107">
-        <v>0</v>
-      </c>
-      <c r="B76" s="107" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1">
       <c r="A77" s="107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B77" s="109" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C77" s="111"/>
     </row>
@@ -13538,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="B79" s="107" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -13546,7 +13555,7 @@
         <v>0</v>
       </c>
       <c r="B80" s="107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -13558,8 +13567,8 @@
       <c r="A82" s="107">
         <v>0</v>
       </c>
-      <c r="B82" s="107" t="s">
-        <v>283</v>
+      <c r="B82" s="121" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:3" hidden="1">
@@ -13567,7 +13576,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="109" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C83" s="111"/>
     </row>
@@ -13576,7 +13585,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="109" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C84" s="111"/>
     </row>
@@ -13589,8 +13598,8 @@
       <c r="A86" s="107">
         <v>0</v>
       </c>
-      <c r="B86" s="107" t="s">
-        <v>279</v>
+      <c r="B86" s="121" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -13598,7 +13607,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="107" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C87" s="111">
         <v>42934</v>
@@ -13609,7 +13618,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="107" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C88" s="111">
         <v>42934</v>
@@ -13624,8 +13633,8 @@
       <c r="A90" s="107">
         <v>0</v>
       </c>
-      <c r="B90" s="107" t="s">
-        <v>280</v>
+      <c r="B90" s="121" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -13633,7 +13642,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="107" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C91" s="111">
         <v>42934</v>
@@ -13644,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="107" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C92" s="111">
         <v>42934</v>
@@ -13659,8 +13668,8 @@
       <c r="A94" s="107">
         <v>0</v>
       </c>
-      <c r="B94" s="107" t="s">
-        <v>165</v>
+      <c r="B94" s="121" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -13668,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="B95" s="109" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C95" s="111"/>
     </row>
@@ -13677,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="B96" s="109" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C96" s="111"/>
     </row>
@@ -13691,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="B98" s="107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -13704,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="B100" s="107" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -13712,7 +13721,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="109" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C101" s="111"/>
     </row>
@@ -13744,20 +13753,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s">
         <v>272</v>
-      </c>
-      <c r="B1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Report-CashFlow" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,12 @@
     <sheet name="CashBank" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
     <sheet name="Simulation" sheetId="9" r:id="rId8"/>
+    <sheet name="Dashboard" sheetId="10" r:id="rId9"/>
+    <sheet name="Tampilan Popup" sheetId="11" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!$A$1:$B$101</definedName>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="301">
   <si>
     <t>STATEMENT OF CASH FLOW</t>
   </si>
@@ -895,6 +897,54 @@
   </si>
   <si>
     <t>cf_sinvoice_edit.tpl</t>
+  </si>
+  <si>
+    <t>SALES</t>
+  </si>
+  <si>
+    <t>SO Unplanned</t>
+  </si>
+  <si>
+    <t>Reference No</t>
+  </si>
+  <si>
+    <t>PO-CUST-001</t>
+  </si>
+  <si>
+    <t>Doc Date</t>
+  </si>
+  <si>
+    <t>Reference Date</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>20/10/2017</t>
+  </si>
+  <si>
+    <t>Expected DT Customer</t>
+  </si>
+  <si>
+    <t>PT. A</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>ETD</t>
+  </si>
+  <si>
+    <t>___________</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>____________</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1790,6 +1840,64 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1815,7 +1923,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1993,6 +2101,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2005,8 +2116,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -11394,6 +11519,329 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:O38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:9">
+      <c r="D4" s="122"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="124"/>
+    </row>
+    <row r="5" spans="4:9">
+      <c r="D5" s="125"/>
+      <c r="E5" s="126" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126" t="s">
+        <v>287</v>
+      </c>
+      <c r="H5" s="126"/>
+      <c r="I5" s="127"/>
+    </row>
+    <row r="6" spans="4:9">
+      <c r="D6" s="125"/>
+      <c r="E6" s="126" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="126"/>
+      <c r="I6" s="127"/>
+    </row>
+    <row r="7" spans="4:9">
+      <c r="D7" s="125"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="127"/>
+    </row>
+    <row r="8" spans="4:9">
+      <c r="D8" s="125"/>
+      <c r="E8" s="126" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" s="126"/>
+      <c r="I8" s="127"/>
+    </row>
+    <row r="9" spans="4:9">
+      <c r="D9" s="125"/>
+      <c r="E9" s="128" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="126"/>
+      <c r="G9" s="129" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9" s="126"/>
+      <c r="I9" s="127"/>
+    </row>
+    <row r="10" spans="4:9">
+      <c r="D10" s="125"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
+    </row>
+    <row r="11" spans="4:9">
+      <c r="D11" s="125"/>
+      <c r="E11" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126" t="s">
+        <v>293</v>
+      </c>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
+    </row>
+    <row r="12" spans="4:9">
+      <c r="D12" s="125"/>
+      <c r="E12" s="126" t="s">
+        <v>294</v>
+      </c>
+      <c r="F12" s="126"/>
+      <c r="G12" s="129" t="s">
+        <v>295</v>
+      </c>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
+    </row>
+    <row r="13" spans="4:9">
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="127"/>
+    </row>
+    <row r="14" spans="4:9">
+      <c r="D14" s="125"/>
+      <c r="E14" s="126" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
+    </row>
+    <row r="15" spans="4:9">
+      <c r="D15" s="125"/>
+      <c r="E15" s="126" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="127"/>
+    </row>
+    <row r="16" spans="4:9">
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+    </row>
+    <row r="17" spans="4:15" ht="7.5" customHeight="1">
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="124"/>
+    </row>
+    <row r="18" spans="4:15">
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126" t="s">
+        <v>298</v>
+      </c>
+      <c r="H18" s="133" t="s">
+        <v>299</v>
+      </c>
+      <c r="I18" s="127"/>
+    </row>
+    <row r="19" spans="4:15" ht="7.5" customHeight="1">
+      <c r="D19" s="130"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132"/>
+    </row>
+    <row r="21" spans="4:15">
+      <c r="L21" s="122"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="124"/>
+    </row>
+    <row r="22" spans="4:15">
+      <c r="L22" s="125"/>
+      <c r="M22" s="126" t="s">
+        <v>80</v>
+      </c>
+      <c r="N22" s="126" t="s">
+        <v>270</v>
+      </c>
+      <c r="O22" s="127"/>
+    </row>
+    <row r="23" spans="4:15">
+      <c r="L23" s="125"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="126"/>
+      <c r="O23" s="127"/>
+    </row>
+    <row r="24" spans="4:15">
+      <c r="L24" s="125"/>
+      <c r="M24" s="126" t="s">
+        <v>289</v>
+      </c>
+      <c r="N24" s="128" t="s">
+        <v>291</v>
+      </c>
+      <c r="O24" s="127"/>
+    </row>
+    <row r="25" spans="4:15">
+      <c r="L25" s="125"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="127"/>
+    </row>
+    <row r="26" spans="4:15">
+      <c r="L26" s="125"/>
+      <c r="M26" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" s="126" t="s">
+        <v>294</v>
+      </c>
+      <c r="O26" s="127"/>
+    </row>
+    <row r="27" spans="4:15">
+      <c r="L27" s="125"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="127"/>
+    </row>
+    <row r="28" spans="4:15">
+      <c r="L28" s="125"/>
+      <c r="M28" s="126" t="s">
+        <v>287</v>
+      </c>
+      <c r="N28" s="126" t="s">
+        <v>288</v>
+      </c>
+      <c r="O28" s="127"/>
+    </row>
+    <row r="29" spans="4:15">
+      <c r="L29" s="125"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="126"/>
+      <c r="O29" s="127"/>
+    </row>
+    <row r="30" spans="4:15">
+      <c r="L30" s="125"/>
+      <c r="M30" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="N30" s="129" t="s">
+        <v>292</v>
+      </c>
+      <c r="O30" s="127"/>
+    </row>
+    <row r="31" spans="4:15">
+      <c r="L31" s="125"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="126"/>
+      <c r="O31" s="127"/>
+    </row>
+    <row r="32" spans="4:15">
+      <c r="L32" s="125"/>
+      <c r="M32" s="126" t="s">
+        <v>293</v>
+      </c>
+      <c r="N32" s="129" t="s">
+        <v>295</v>
+      </c>
+      <c r="O32" s="127"/>
+    </row>
+    <row r="33" spans="12:15">
+      <c r="L33" s="125"/>
+      <c r="M33" s="126"/>
+      <c r="N33" s="126"/>
+      <c r="O33" s="127"/>
+    </row>
+    <row r="34" spans="12:15">
+      <c r="L34" s="125"/>
+      <c r="M34" s="126" t="s">
+        <v>296</v>
+      </c>
+      <c r="N34" s="126" t="s">
+        <v>300</v>
+      </c>
+      <c r="O34" s="127"/>
+    </row>
+    <row r="35" spans="12:15">
+      <c r="L35" s="130"/>
+      <c r="M35" s="131"/>
+      <c r="N35" s="131"/>
+      <c r="O35" s="132"/>
+    </row>
+    <row r="36" spans="12:15" ht="6" customHeight="1">
+      <c r="L36" s="122"/>
+      <c r="M36" s="123"/>
+      <c r="N36" s="123"/>
+      <c r="O36" s="124"/>
+    </row>
+    <row r="37" spans="12:15">
+      <c r="L37" s="125"/>
+      <c r="M37" s="126"/>
+      <c r="N37" s="126" t="s">
+        <v>298</v>
+      </c>
+      <c r="O37" s="134" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="12:15" ht="6" customHeight="1">
+      <c r="L38" s="130"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="131"/>
+      <c r="O38" s="132"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
@@ -11421,22 +11869,22 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117" t="s">
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117" t="s">
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="91" t="s">
@@ -11471,22 +11919,22 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="118" t="s">
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="119"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="118" t="s">
+      <c r="G5" s="120"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="119"/>
-      <c r="K5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="121"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -11494,22 +11942,22 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117" t="s">
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117" t="s">
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="91" t="s">
@@ -11544,22 +11992,22 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="118" t="s">
+      <c r="B11" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="118" t="s">
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="119"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="118" t="s">
+      <c r="G11" s="120"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="119"/>
-      <c r="K11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -11567,17 +12015,17 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117" t="s">
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="91" t="s">
@@ -11603,17 +12051,17 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="118" t="s">
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="119"/>
-      <c r="H17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="121"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
@@ -11927,6 +12375,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -11937,12 +12391,6 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12859,7 +13307,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -12896,10 +13344,10 @@
       <c r="A3" s="107">
         <v>0</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="117" t="s">
         <v>283</v>
       </c>
     </row>
@@ -12941,10 +13389,10 @@
       <c r="A8" s="107">
         <v>0</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="117" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="117" t="s">
         <v>282</v>
       </c>
     </row>
@@ -13001,7 +13449,7 @@
       <c r="A14" s="107">
         <v>0</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="117" t="s">
         <v>138</v>
       </c>
     </row>
@@ -13055,10 +13503,10 @@
       <c r="A20" s="107">
         <v>0</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="121" t="s">
+      <c r="D20" s="117" t="s">
         <v>284</v>
       </c>
     </row>
@@ -13151,7 +13599,7 @@
       <c r="A32" s="107">
         <v>0</v>
       </c>
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="117" t="s">
         <v>146</v>
       </c>
     </row>
@@ -13198,7 +13646,7 @@
       <c r="A37" s="107">
         <v>0</v>
       </c>
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="117" t="s">
         <v>147</v>
       </c>
     </row>
@@ -13275,7 +13723,7 @@
       <c r="A46" s="107">
         <v>0</v>
       </c>
-      <c r="B46" s="121" t="s">
+      <c r="B46" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -13299,7 +13747,7 @@
       <c r="A49" s="107">
         <v>0</v>
       </c>
-      <c r="B49" s="121" t="s">
+      <c r="B49" s="117" t="s">
         <v>151</v>
       </c>
     </row>
@@ -13350,7 +13798,7 @@
       <c r="A55" s="107">
         <v>0</v>
       </c>
-      <c r="B55" s="121" t="s">
+      <c r="B55" s="117" t="s">
         <v>191</v>
       </c>
     </row>
@@ -13374,7 +13822,7 @@
       <c r="A58" s="107">
         <v>0</v>
       </c>
-      <c r="B58" s="121" t="s">
+      <c r="B58" s="117" t="s">
         <v>153</v>
       </c>
     </row>
@@ -13449,7 +13897,7 @@
       <c r="A67" s="107">
         <v>0</v>
       </c>
-      <c r="B67" s="121" t="s">
+      <c r="B67" s="117" t="s">
         <v>155</v>
       </c>
     </row>
@@ -13567,7 +14015,7 @@
       <c r="A82" s="107">
         <v>0</v>
       </c>
-      <c r="B82" s="121" t="s">
+      <c r="B82" s="117" t="s">
         <v>280</v>
       </c>
     </row>
@@ -13598,7 +14046,7 @@
       <c r="A86" s="107">
         <v>0</v>
       </c>
-      <c r="B86" s="121" t="s">
+      <c r="B86" s="117" t="s">
         <v>276</v>
       </c>
     </row>
@@ -13633,7 +14081,7 @@
       <c r="A90" s="107">
         <v>0</v>
       </c>
-      <c r="B90" s="121" t="s">
+      <c r="B90" s="117" t="s">
         <v>277</v>
       </c>
     </row>
@@ -13668,7 +14116,7 @@
       <c r="A94" s="107">
         <v>0</v>
       </c>
-      <c r="B94" s="121" t="s">
+      <c r="B94" s="117" t="s">
         <v>163</v>
       </c>
     </row>
@@ -13772,4 +14220,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -9,39 +9,43 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Report-CashFlow" sheetId="1" r:id="rId1"/>
-    <sheet name="Report Others" sheetId="4" r:id="rId2"/>
-    <sheet name="Account" sheetId="3" r:id="rId3"/>
-    <sheet name="Add-DataEntry" sheetId="5" r:id="rId4"/>
-    <sheet name="Invoice" sheetId="7" r:id="rId5"/>
-    <sheet name="CashBank" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
-    <sheet name="Simulation" sheetId="9" r:id="rId8"/>
-    <sheet name="Dashboard" sheetId="10" r:id="rId9"/>
-    <sheet name="Tampilan Popup" sheetId="11" r:id="rId10"/>
+    <sheet name="Report-CashFlow (2)" sheetId="12" r:id="rId1"/>
+    <sheet name="Report-CashFlow" sheetId="1" r:id="rId2"/>
+    <sheet name="Report Others" sheetId="4" r:id="rId3"/>
+    <sheet name="Account" sheetId="3" r:id="rId4"/>
+    <sheet name="Add-DataEntry" sheetId="5" r:id="rId5"/>
+    <sheet name="Invoice" sheetId="7" r:id="rId6"/>
+    <sheet name="CashBank" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
+    <sheet name="Simulation" sheetId="9" r:id="rId9"/>
+    <sheet name="Dashboard" sheetId="10" r:id="rId10"/>
+    <sheet name="Tampilan Popup" sheetId="11" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!$A$1:$B$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet1!$A$1:$B$101</definedName>
     <definedName name="CF_JFI">[1]Database!$D$3:$G$503</definedName>
     <definedName name="COA">[2]COA!$A$2:$A$139</definedName>
-    <definedName name="_xlnm.Database" localSheetId="5">#REF!</definedName>
+    <definedName name="_xlnm.Database" localSheetId="6">#REF!</definedName>
+    <definedName name="_xlnm.Database" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report-CashFlow'!$B$2:$P$58</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report-CashFlow'!$B:$C</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Report-CashFlow'!$B$2:$P$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report-CashFlow (2)'!$A$2:$O$50</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Report-CashFlow'!$B:$C</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report-CashFlow (2)'!$A:$B</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="301">
   <si>
     <t>STATEMENT OF CASH FLOW</t>
   </si>
@@ -2104,18 +2108,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
@@ -2132,6 +2124,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -10133,14 +10137,1694 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
+  <dimension ref="A1:GG53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="15.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="5.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" style="1" customWidth="1"/>
+    <col min="20" max="112" width="9.140625" style="1" customWidth="1"/>
+    <col min="113" max="164" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="165" max="166" width="9.140625" style="1" customWidth="1"/>
+    <col min="167" max="178" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="179" max="180" width="9.140625" style="1" customWidth="1"/>
+    <col min="181" max="188" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="189" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="14.25" hidden="1" thickBot="1">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="14.25" thickBot="1">
+      <c r="C2" s="13">
+        <v>42736</v>
+      </c>
+      <c r="D2" s="14">
+        <v>42767</v>
+      </c>
+      <c r="E2" s="14">
+        <v>42798</v>
+      </c>
+      <c r="F2" s="14">
+        <v>42829</v>
+      </c>
+      <c r="G2" s="14">
+        <v>42860</v>
+      </c>
+      <c r="H2" s="14">
+        <v>42891</v>
+      </c>
+      <c r="I2" s="14">
+        <v>42922</v>
+      </c>
+      <c r="J2" s="14">
+        <v>42953</v>
+      </c>
+      <c r="K2" s="14">
+        <v>42984</v>
+      </c>
+      <c r="L2" s="14">
+        <v>43015</v>
+      </c>
+      <c r="M2" s="14">
+        <v>43046</v>
+      </c>
+      <c r="N2" s="15">
+        <v>43077</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15">
+      <c r="A3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="1:19" ht="15">
+      <c r="A4" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="76">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="85">
+        <v>1500</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" ht="15">
+      <c r="A5" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="76">
+        <v>200</v>
+      </c>
+      <c r="D5" s="85">
+        <v>100</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" ht="15">
+      <c r="A6" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="76">
+        <v>13</v>
+      </c>
+      <c r="D6" s="85">
+        <v>10</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="26"/>
+    </row>
+    <row r="7" spans="1:19" ht="15">
+      <c r="A7" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="76">
+        <v>2</v>
+      </c>
+      <c r="D7" s="85">
+        <v>5</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="26">
+        <v>2.6592682899303867E-6</v>
+      </c>
+      <c r="Q7" s="26"/>
+      <c r="S7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15">
+      <c r="A8" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="76">
+        <v>-300</v>
+      </c>
+      <c r="D8" s="85">
+        <v>-340</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="26">
+        <v>-0.49173576071142144</v>
+      </c>
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" spans="1:19" ht="15">
+      <c r="A9" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="76">
+        <v>-400</v>
+      </c>
+      <c r="D9" s="85">
+        <v>-600</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="26">
+        <v>-0.43448354124208838</v>
+      </c>
+      <c r="Q9" s="26"/>
+    </row>
+    <row r="10" spans="1:19" ht="15">
+      <c r="A10" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="76">
+        <v>-50</v>
+      </c>
+      <c r="D10" s="85">
+        <v>-60</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="26">
+        <v>-6.3266777258843654E-4</v>
+      </c>
+      <c r="Q10" s="26"/>
+    </row>
+    <row r="11" spans="1:19" ht="15">
+      <c r="A11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30">
+        <f>SUM(C12:C26)</f>
+        <v>-60</v>
+      </c>
+      <c r="D11" s="49">
+        <f>SUM(D12:D26)</f>
+        <v>-93</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="26">
+        <v>-0.14162906085246563</v>
+      </c>
+      <c r="Q11" s="26"/>
+    </row>
+    <row r="12" spans="1:19" ht="15">
+      <c r="A12" s="24"/>
+      <c r="B12" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="76">
+        <v>-15</v>
+      </c>
+      <c r="D12" s="85">
+        <v>-20</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="26">
+        <v>-2.979692735509018E-2</v>
+      </c>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15">
+      <c r="A13" s="24"/>
+      <c r="B13" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="76">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="85">
+        <v>-2</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="26"/>
+    </row>
+    <row r="14" spans="1:19" ht="15">
+      <c r="A14" s="24"/>
+      <c r="B14" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="76">
+        <v>-10</v>
+      </c>
+      <c r="D14" s="85">
+        <v>-15</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="26"/>
+    </row>
+    <row r="15" spans="1:19" ht="15">
+      <c r="A15" s="24"/>
+      <c r="B15" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="76">
+        <v>-4</v>
+      </c>
+      <c r="D15" s="85">
+        <v>-7</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="26">
+        <v>-2.5429222642884393E-2</v>
+      </c>
+      <c r="Q15" s="26"/>
+    </row>
+    <row r="16" spans="1:19" ht="15">
+      <c r="A16" s="36"/>
+      <c r="B16" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="77">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="86">
+        <v>-2</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="26">
+        <v>-4.2501025324421004E-3</v>
+      </c>
+      <c r="Q16" s="26"/>
+    </row>
+    <row r="17" spans="1:19" ht="15">
+      <c r="A17" s="24"/>
+      <c r="B17" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="77">
+        <v>-2</v>
+      </c>
+      <c r="D17" s="86">
+        <v>-3</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="26">
+        <v>-4.341726596175724E-3</v>
+      </c>
+      <c r="Q17" s="26"/>
+    </row>
+    <row r="18" spans="1:19" ht="15">
+      <c r="A18" s="24"/>
+      <c r="B18" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="77">
+        <v>-9</v>
+      </c>
+      <c r="D18" s="86">
+        <v>-4</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="26">
+        <v>-2.123082559628277E-4</v>
+      </c>
+      <c r="Q18" s="26"/>
+    </row>
+    <row r="19" spans="1:19" ht="15">
+      <c r="A19" s="24"/>
+      <c r="B19" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="77">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="86">
+        <v>-5</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="26">
+        <v>-2.5017717625085411E-4</v>
+      </c>
+      <c r="Q19" s="26"/>
+    </row>
+    <row r="20" spans="1:19" ht="15">
+      <c r="A20" s="24"/>
+      <c r="B20" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="77">
+        <v>-5</v>
+      </c>
+      <c r="D20" s="86">
+        <v>-7</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="26">
+        <v>-9.6554053810461802E-4</v>
+      </c>
+      <c r="Q20" s="26"/>
+    </row>
+    <row r="21" spans="1:19" ht="15">
+      <c r="A21" s="24"/>
+      <c r="B21" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="77">
+        <v>-7</v>
+      </c>
+      <c r="D21" s="86">
+        <v>-8</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="26">
+        <v>-7.6051071431988311E-3</v>
+      </c>
+      <c r="Q21" s="26"/>
+    </row>
+    <row r="22" spans="1:19" ht="15">
+      <c r="A22" s="24"/>
+      <c r="B22" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="77">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="86">
+        <v>-2</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="26">
+        <v>-3.8252749237722315E-3</v>
+      </c>
+      <c r="Q22" s="26"/>
+    </row>
+    <row r="23" spans="1:19" ht="15">
+      <c r="A23" s="24"/>
+      <c r="B23" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="77">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="86">
+        <v>-3</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="26">
+        <v>-1.4790990837380694E-3</v>
+      </c>
+      <c r="Q23" s="26"/>
+    </row>
+    <row r="24" spans="1:19" ht="15">
+      <c r="A24" s="24"/>
+      <c r="B24" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="77">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="86">
+        <v>-2</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="26">
+        <v>-4.0438984600723801E-3</v>
+      </c>
+      <c r="Q24" s="26"/>
+      <c r="S24" s="38">
+        <v>233826739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15">
+      <c r="A25" s="24"/>
+      <c r="B25" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="77">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="86">
+        <v>-4</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="26">
+        <v>-5.492436242119933E-2</v>
+      </c>
+      <c r="Q25" s="26"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A26" s="33"/>
+      <c r="B26" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="78">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="87">
+        <v>-9</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="26">
+        <v>-4.5079729918640231E-3</v>
+      </c>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="38">
+        <v>143385000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15">
+      <c r="A27" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="84">
+        <f>SUM(C4:C11)</f>
+        <v>405</v>
+      </c>
+      <c r="D27" s="43">
+        <f>SUM(D4:D11)</f>
+        <v>522</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="45"/>
+      <c r="R27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" s="38">
+        <v>115000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15">
+      <c r="A28" s="24"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="31"/>
+    </row>
+    <row r="29" spans="1:19" ht="15">
+      <c r="A29" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="31"/>
+    </row>
+    <row r="30" spans="1:19" ht="15">
+      <c r="A30" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="76">
+        <v>-13</v>
+      </c>
+      <c r="D30" s="85">
+        <v>-120</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="31"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A31" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="82">
+        <v>-2</v>
+      </c>
+      <c r="D31" s="88">
+        <v>0</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="35"/>
+    </row>
+    <row r="32" spans="1:19" ht="15">
+      <c r="A32" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30">
+        <f>SUM(C30:C31)</f>
+        <v>-15</v>
+      </c>
+      <c r="D32" s="49">
+        <f>SUM(D30:D31)</f>
+        <v>-120</v>
+      </c>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="51"/>
+    </row>
+    <row r="33" spans="1:15" ht="15">
+      <c r="A33" s="24"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="31"/>
+    </row>
+    <row r="34" spans="1:15" ht="15">
+      <c r="A34" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="31"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A35" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="78">
+        <v>0</v>
+      </c>
+      <c r="D35" s="87">
+        <v>0</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="35"/>
+    </row>
+    <row r="36" spans="1:15" ht="15">
+      <c r="A36" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="76">
+        <v>100</v>
+      </c>
+      <c r="D36" s="85">
+        <v>30</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="31"/>
+    </row>
+    <row r="37" spans="1:15" ht="15">
+      <c r="A37" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="52"/>
+      <c r="C37" s="76">
+        <v>5</v>
+      </c>
+      <c r="D37" s="85">
+        <v>10</v>
+      </c>
+      <c r="E37" s="40"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="31"/>
+    </row>
+    <row r="38" spans="1:15" ht="15">
+      <c r="A38" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="76">
+        <v>-1</v>
+      </c>
+      <c r="D38" s="85">
+        <v>1</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="31"/>
+    </row>
+    <row r="39" spans="1:15" ht="15">
+      <c r="A39" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="52"/>
+      <c r="C39" s="76">
+        <v>-80</v>
+      </c>
+      <c r="D39" s="85">
+        <v>-20</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="31"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A40" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="80"/>
+      <c r="C40" s="78">
+        <v>-5</v>
+      </c>
+      <c r="D40" s="87">
+        <v>-5</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="79"/>
+    </row>
+    <row r="41" spans="1:15" ht="15">
+      <c r="A41" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="29"/>
+      <c r="C41" s="84">
+        <f>SUM(C35:C40)</f>
+        <v>19</v>
+      </c>
+      <c r="D41" s="43">
+        <f>SUM(D35:D40)</f>
+        <v>16</v>
+      </c>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="51"/>
+    </row>
+    <row r="42" spans="1:15" ht="15">
+      <c r="A42" s="24"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="31"/>
+    </row>
+    <row r="43" spans="1:15" ht="15">
+      <c r="A43" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="21">
+        <f>C41+C32+C27</f>
+        <v>409</v>
+      </c>
+      <c r="D43" s="22">
+        <f>D41+D32+D27</f>
+        <v>418</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="31"/>
+    </row>
+    <row r="44" spans="1:15" ht="15">
+      <c r="A44" s="24"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="31"/>
+    </row>
+    <row r="45" spans="1:15" ht="15">
+      <c r="A45" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="76">
+        <v>7</v>
+      </c>
+      <c r="D45" s="85">
+        <v>7</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="31"/>
+    </row>
+    <row r="46" spans="1:15" ht="15">
+      <c r="A46" s="24"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="31"/>
+    </row>
+    <row r="47" spans="1:15" ht="15">
+      <c r="A47" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="76">
+        <v>59</v>
+      </c>
+      <c r="D47" s="22">
+        <f>C48</f>
+        <v>475</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="31"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A48" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="56"/>
+      <c r="C48" s="57">
+        <v>475</v>
+      </c>
+      <c r="D48" s="58">
+        <v>900</v>
+      </c>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="60"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" thickTop="1">
+      <c r="A49" s="42"/>
+      <c r="B49" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="30">
+        <f>C43+C45+C47-C48</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="49">
+        <f>D43+D45+D47-D48</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="61">
+        <v>0</v>
+      </c>
+      <c r="F49" s="61">
+        <v>0</v>
+      </c>
+      <c r="G49" s="61">
+        <v>0</v>
+      </c>
+      <c r="H49" s="61">
+        <v>0</v>
+      </c>
+      <c r="I49" s="61">
+        <v>0</v>
+      </c>
+      <c r="J49" s="61">
+        <v>0</v>
+      </c>
+      <c r="K49" s="61">
+        <v>0</v>
+      </c>
+      <c r="L49" s="61">
+        <v>0</v>
+      </c>
+      <c r="M49" s="61">
+        <v>0</v>
+      </c>
+      <c r="N49" s="62">
+        <v>0</v>
+      </c>
+      <c r="O49" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A50" s="33"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="34">
+        <v>0</v>
+      </c>
+      <c r="H50" s="34">
+        <v>0</v>
+      </c>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="66"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="C52" s="11"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="M53" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.95866141699999996" right="0.20866141699999999" top="6.2992125999999996E-2" bottom="0.35433070900000002" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="258" scale="75" orientation="landscape" blackAndWhite="1" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:O38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:9">
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
+    </row>
+    <row r="5" spans="4:9">
+      <c r="D5" s="121"/>
+      <c r="E5" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122" t="s">
+        <v>287</v>
+      </c>
+      <c r="H5" s="122"/>
+      <c r="I5" s="123"/>
+    </row>
+    <row r="6" spans="4:9">
+      <c r="D6" s="121"/>
+      <c r="E6" s="122" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="122"/>
+      <c r="I6" s="123"/>
+    </row>
+    <row r="7" spans="4:9">
+      <c r="D7" s="121"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="123"/>
+    </row>
+    <row r="8" spans="4:9">
+      <c r="D8" s="121"/>
+      <c r="E8" s="122" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" s="122"/>
+      <c r="I8" s="123"/>
+    </row>
+    <row r="9" spans="4:9">
+      <c r="D9" s="121"/>
+      <c r="E9" s="124" t="s">
+        <v>291</v>
+      </c>
+      <c r="F9" s="122"/>
+      <c r="G9" s="125" t="s">
+        <v>292</v>
+      </c>
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+    </row>
+    <row r="10" spans="4:9">
+      <c r="D10" s="121"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+    </row>
+    <row r="11" spans="4:9">
+      <c r="D11" s="121"/>
+      <c r="E11" s="122" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122" t="s">
+        <v>293</v>
+      </c>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+    </row>
+    <row r="12" spans="4:9">
+      <c r="D12" s="121"/>
+      <c r="E12" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="F12" s="122"/>
+      <c r="G12" s="125" t="s">
+        <v>295</v>
+      </c>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+    </row>
+    <row r="13" spans="4:9">
+      <c r="D13" s="121"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+    </row>
+    <row r="14" spans="4:9">
+      <c r="D14" s="121"/>
+      <c r="E14" s="122" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
+    </row>
+    <row r="15" spans="4:9">
+      <c r="D15" s="121"/>
+      <c r="E15" s="122" t="s">
+        <v>297</v>
+      </c>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
+    </row>
+    <row r="16" spans="4:9">
+      <c r="D16" s="126"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+    </row>
+    <row r="17" spans="4:15" ht="7.5" customHeight="1">
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="120"/>
+    </row>
+    <row r="18" spans="4:15">
+      <c r="D18" s="121"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122" t="s">
+        <v>298</v>
+      </c>
+      <c r="H18" s="129" t="s">
+        <v>299</v>
+      </c>
+      <c r="I18" s="123"/>
+    </row>
+    <row r="19" spans="4:15" ht="7.5" customHeight="1">
+      <c r="D19" s="126"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="128"/>
+    </row>
+    <row r="21" spans="4:15">
+      <c r="L21" s="118"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="120"/>
+    </row>
+    <row r="22" spans="4:15">
+      <c r="L22" s="121"/>
+      <c r="M22" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="N22" s="122" t="s">
+        <v>270</v>
+      </c>
+      <c r="O22" s="123"/>
+    </row>
+    <row r="23" spans="4:15">
+      <c r="L23" s="121"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="123"/>
+    </row>
+    <row r="24" spans="4:15">
+      <c r="L24" s="121"/>
+      <c r="M24" s="122" t="s">
+        <v>289</v>
+      </c>
+      <c r="N24" s="124" t="s">
+        <v>291</v>
+      </c>
+      <c r="O24" s="123"/>
+    </row>
+    <row r="25" spans="4:15">
+      <c r="L25" s="121"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="123"/>
+    </row>
+    <row r="26" spans="4:15">
+      <c r="L26" s="121"/>
+      <c r="M26" s="122" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="O26" s="123"/>
+    </row>
+    <row r="27" spans="4:15">
+      <c r="L27" s="121"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="123"/>
+    </row>
+    <row r="28" spans="4:15">
+      <c r="L28" s="121"/>
+      <c r="M28" s="122" t="s">
+        <v>287</v>
+      </c>
+      <c r="N28" s="122" t="s">
+        <v>288</v>
+      </c>
+      <c r="O28" s="123"/>
+    </row>
+    <row r="29" spans="4:15">
+      <c r="L29" s="121"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="123"/>
+    </row>
+    <row r="30" spans="4:15">
+      <c r="L30" s="121"/>
+      <c r="M30" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="N30" s="125" t="s">
+        <v>292</v>
+      </c>
+      <c r="O30" s="123"/>
+    </row>
+    <row r="31" spans="4:15">
+      <c r="L31" s="121"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="123"/>
+    </row>
+    <row r="32" spans="4:15">
+      <c r="L32" s="121"/>
+      <c r="M32" s="122" t="s">
+        <v>293</v>
+      </c>
+      <c r="N32" s="125" t="s">
+        <v>295</v>
+      </c>
+      <c r="O32" s="123"/>
+    </row>
+    <row r="33" spans="12:15">
+      <c r="L33" s="121"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="123"/>
+    </row>
+    <row r="34" spans="12:15">
+      <c r="L34" s="121"/>
+      <c r="M34" s="122" t="s">
+        <v>296</v>
+      </c>
+      <c r="N34" s="122" t="s">
+        <v>300</v>
+      </c>
+      <c r="O34" s="123"/>
+    </row>
+    <row r="35" spans="12:15">
+      <c r="L35" s="126"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="128"/>
+    </row>
+    <row r="36" spans="12:15" ht="6" customHeight="1">
+      <c r="L36" s="118"/>
+      <c r="M36" s="119"/>
+      <c r="N36" s="119"/>
+      <c r="O36" s="120"/>
+    </row>
+    <row r="37" spans="12:15">
+      <c r="L37" s="121"/>
+      <c r="M37" s="122"/>
+      <c r="N37" s="122" t="s">
+        <v>298</v>
+      </c>
+      <c r="O37" s="130" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="12:15" ht="6" customHeight="1">
+      <c r="L38" s="126"/>
+      <c r="M38" s="127"/>
+      <c r="N38" s="127"/>
+      <c r="O38" s="128"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="B1:GG61"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12:B18"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11519,335 +13203,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D4:O38"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="4:9">
-      <c r="D4" s="122"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="124"/>
-    </row>
-    <row r="5" spans="4:9">
-      <c r="D5" s="125"/>
-      <c r="E5" s="126" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126" t="s">
-        <v>287</v>
-      </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="127"/>
-    </row>
-    <row r="6" spans="4:9">
-      <c r="D6" s="125"/>
-      <c r="E6" s="126" t="s">
-        <v>270</v>
-      </c>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126" t="s">
-        <v>288</v>
-      </c>
-      <c r="H6" s="126"/>
-      <c r="I6" s="127"/>
-    </row>
-    <row r="7" spans="4:9">
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="127"/>
-    </row>
-    <row r="8" spans="4:9">
-      <c r="D8" s="125"/>
-      <c r="E8" s="126" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126" t="s">
-        <v>290</v>
-      </c>
-      <c r="H8" s="126"/>
-      <c r="I8" s="127"/>
-    </row>
-    <row r="9" spans="4:9">
-      <c r="D9" s="125"/>
-      <c r="E9" s="128" t="s">
-        <v>291</v>
-      </c>
-      <c r="F9" s="126"/>
-      <c r="G9" s="129" t="s">
-        <v>292</v>
-      </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127"/>
-    </row>
-    <row r="10" spans="4:9">
-      <c r="D10" s="125"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
-    </row>
-    <row r="11" spans="4:9">
-      <c r="D11" s="125"/>
-      <c r="E11" s="126" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126" t="s">
-        <v>293</v>
-      </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
-    </row>
-    <row r="12" spans="4:9">
-      <c r="D12" s="125"/>
-      <c r="E12" s="126" t="s">
-        <v>294</v>
-      </c>
-      <c r="F12" s="126"/>
-      <c r="G12" s="129" t="s">
-        <v>295</v>
-      </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
-    </row>
-    <row r="13" spans="4:9">
-      <c r="D13" s="125"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="127"/>
-    </row>
-    <row r="14" spans="4:9">
-      <c r="D14" s="125"/>
-      <c r="E14" s="126" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="127"/>
-    </row>
-    <row r="15" spans="4:9">
-      <c r="D15" s="125"/>
-      <c r="E15" s="126" t="s">
-        <v>297</v>
-      </c>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="127"/>
-    </row>
-    <row r="16" spans="4:9">
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="132"/>
-    </row>
-    <row r="17" spans="4:15" ht="7.5" customHeight="1">
-      <c r="D17" s="122"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="124"/>
-    </row>
-    <row r="18" spans="4:15">
-      <c r="D18" s="125"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126" t="s">
-        <v>298</v>
-      </c>
-      <c r="H18" s="133" t="s">
-        <v>299</v>
-      </c>
-      <c r="I18" s="127"/>
-    </row>
-    <row r="19" spans="4:15" ht="7.5" customHeight="1">
-      <c r="D19" s="130"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="132"/>
-    </row>
-    <row r="21" spans="4:15">
-      <c r="L21" s="122"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="124"/>
-    </row>
-    <row r="22" spans="4:15">
-      <c r="L22" s="125"/>
-      <c r="M22" s="126" t="s">
-        <v>80</v>
-      </c>
-      <c r="N22" s="126" t="s">
-        <v>270</v>
-      </c>
-      <c r="O22" s="127"/>
-    </row>
-    <row r="23" spans="4:15">
-      <c r="L23" s="125"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="127"/>
-    </row>
-    <row r="24" spans="4:15">
-      <c r="L24" s="125"/>
-      <c r="M24" s="126" t="s">
-        <v>289</v>
-      </c>
-      <c r="N24" s="128" t="s">
-        <v>291</v>
-      </c>
-      <c r="O24" s="127"/>
-    </row>
-    <row r="25" spans="4:15">
-      <c r="L25" s="125"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="127"/>
-    </row>
-    <row r="26" spans="4:15">
-      <c r="L26" s="125"/>
-      <c r="M26" s="126" t="s">
-        <v>86</v>
-      </c>
-      <c r="N26" s="126" t="s">
-        <v>294</v>
-      </c>
-      <c r="O26" s="127"/>
-    </row>
-    <row r="27" spans="4:15">
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="127"/>
-    </row>
-    <row r="28" spans="4:15">
-      <c r="L28" s="125"/>
-      <c r="M28" s="126" t="s">
-        <v>287</v>
-      </c>
-      <c r="N28" s="126" t="s">
-        <v>288</v>
-      </c>
-      <c r="O28" s="127"/>
-    </row>
-    <row r="29" spans="4:15">
-      <c r="L29" s="125"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-      <c r="O29" s="127"/>
-    </row>
-    <row r="30" spans="4:15">
-      <c r="L30" s="125"/>
-      <c r="M30" s="126" t="s">
-        <v>290</v>
-      </c>
-      <c r="N30" s="129" t="s">
-        <v>292</v>
-      </c>
-      <c r="O30" s="127"/>
-    </row>
-    <row r="31" spans="4:15">
-      <c r="L31" s="125"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="126"/>
-      <c r="O31" s="127"/>
-    </row>
-    <row r="32" spans="4:15">
-      <c r="L32" s="125"/>
-      <c r="M32" s="126" t="s">
-        <v>293</v>
-      </c>
-      <c r="N32" s="129" t="s">
-        <v>295</v>
-      </c>
-      <c r="O32" s="127"/>
-    </row>
-    <row r="33" spans="12:15">
-      <c r="L33" s="125"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="127"/>
-    </row>
-    <row r="34" spans="12:15">
-      <c r="L34" s="125"/>
-      <c r="M34" s="126" t="s">
-        <v>296</v>
-      </c>
-      <c r="N34" s="126" t="s">
-        <v>300</v>
-      </c>
-      <c r="O34" s="127"/>
-    </row>
-    <row r="35" spans="12:15">
-      <c r="L35" s="130"/>
-      <c r="M35" s="131"/>
-      <c r="N35" s="131"/>
-      <c r="O35" s="132"/>
-    </row>
-    <row r="36" spans="12:15" ht="6" customHeight="1">
-      <c r="L36" s="122"/>
-      <c r="M36" s="123"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="124"/>
-    </row>
-    <row r="37" spans="12:15">
-      <c r="L37" s="125"/>
-      <c r="M37" s="126"/>
-      <c r="N37" s="126" t="s">
-        <v>298</v>
-      </c>
-      <c r="O37" s="134" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="12:15" ht="6" customHeight="1">
-      <c r="L38" s="130"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="131"/>
-      <c r="O38" s="132"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11869,22 +13230,22 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118" t="s">
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118" t="s">
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="91" t="s">
@@ -11919,22 +13280,22 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="119" t="s">
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="120"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="119" t="s">
+      <c r="G5" s="133"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="120"/>
-      <c r="K5" s="121"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="134"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -11942,22 +13303,22 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118" t="s">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118" t="s">
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" s="91" t="s">
@@ -11992,22 +13353,22 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="119" t="s">
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="120"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="119" t="s">
+      <c r="G11" s="133"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="120"/>
-      <c r="K11" s="121"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="134"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
@@ -12015,17 +13376,17 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118" t="s">
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="91" t="s">
@@ -12051,17 +13412,17 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="B17" s="119" t="s">
+      <c r="B17" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="119" t="s">
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="134"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
@@ -12375,12 +13736,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -12391,12 +13746,18 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E33"/>
   <sheetViews>
@@ -12778,7 +14139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -13040,7 +14401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B38"/>
   <sheetViews>
@@ -13218,7 +14579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B17"/>
   <sheetViews>
@@ -13302,7 +14663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D101"/>
@@ -14186,7 +15547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -14220,29 +15581,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -9,43 +9,44 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Report-CashFlow (2)" sheetId="12" r:id="rId1"/>
-    <sheet name="Report-CashFlow" sheetId="1" r:id="rId2"/>
-    <sheet name="Report Others" sheetId="4" r:id="rId3"/>
-    <sheet name="Account" sheetId="3" r:id="rId4"/>
-    <sheet name="Add-DataEntry" sheetId="5" r:id="rId5"/>
-    <sheet name="Invoice" sheetId="7" r:id="rId6"/>
-    <sheet name="CashBank" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
-    <sheet name="Simulation" sheetId="9" r:id="rId9"/>
-    <sheet name="Dashboard" sheetId="10" r:id="rId10"/>
-    <sheet name="Tampilan Popup" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId2"/>
+    <sheet name="Report-CashFlow" sheetId="1" r:id="rId3"/>
+    <sheet name="Report Others" sheetId="4" r:id="rId4"/>
+    <sheet name="Account" sheetId="3" r:id="rId5"/>
+    <sheet name="Add-DataEntry" sheetId="5" r:id="rId6"/>
+    <sheet name="Invoice" sheetId="7" r:id="rId7"/>
+    <sheet name="CashBank" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId9"/>
+    <sheet name="Simulation" sheetId="9" r:id="rId10"/>
+    <sheet name="Dashboard" sheetId="10" r:id="rId11"/>
+    <sheet name="Tampilan Popup" sheetId="11" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet1!$A$1:$B$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sheet1!$A$1:$B$101</definedName>
     <definedName name="CF_JFI">[1]Database!$D$3:$G$503</definedName>
     <definedName name="COA">[2]COA!$A$2:$A$139</definedName>
-    <definedName name="_xlnm.Database" localSheetId="6">#REF!</definedName>
+    <definedName name="_xlnm.Database" localSheetId="7">#REF!</definedName>
     <definedName name="_xlnm.Database" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Report-CashFlow'!$B$2:$P$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report-CashFlow (2)'!$A$2:$O$50</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Report-CashFlow'!$B:$C</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report-CashFlow (2)'!$A:$B</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Report-CashFlow'!$B$2:$P$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report-CashFlow (2)'!$B$2:$P$50</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Report-CashFlow'!$B:$C</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report-CashFlow (2)'!$B:$C</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="310">
   <si>
     <t>STATEMENT OF CASH FLOW</t>
   </si>
@@ -949,12 +950,39 @@
   </si>
   <si>
     <t>____________</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>cf_type</t>
+  </si>
+  <si>
+    <t>seq</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -10139,123 +10167,123 @@
   </sheetPr>
   <dimension ref="A1:GG53"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="14.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
-    <col min="12" max="14" width="15.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="5.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" style="1" customWidth="1"/>
-    <col min="20" max="112" width="9.140625" style="1" customWidth="1"/>
-    <col min="113" max="164" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="165" max="166" width="9.140625" style="1" customWidth="1"/>
-    <col min="167" max="178" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="179" max="180" width="9.140625" style="1" customWidth="1"/>
-    <col min="181" max="188" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="189" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" customWidth="1"/>
+    <col min="13" max="15" width="15.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" style="1" customWidth="1"/>
+    <col min="21" max="113" width="9.140625" style="1" customWidth="1"/>
+    <col min="114" max="165" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="166" max="167" width="9.140625" style="1" customWidth="1"/>
+    <col min="168" max="179" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="180" max="181" width="9.140625" style="1" customWidth="1"/>
+    <col min="182" max="189" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="190" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" hidden="1" thickBot="1">
-      <c r="C1" s="1">
+    <row r="1" spans="1:20" ht="14.25" hidden="1" thickBot="1">
+      <c r="D1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>10</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>11</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.25" thickBot="1">
-      <c r="C2" s="13">
+    <row r="2" spans="1:20" ht="14.25" thickBot="1">
+      <c r="D2" s="13">
         <v>42736</v>
       </c>
-      <c r="D2" s="14">
+      <c r="E2" s="14">
         <v>42767</v>
       </c>
-      <c r="E2" s="14">
+      <c r="F2" s="14">
         <v>42798</v>
       </c>
-      <c r="F2" s="14">
+      <c r="G2" s="14">
         <v>42829</v>
       </c>
-      <c r="G2" s="14">
+      <c r="H2" s="14">
         <v>42860</v>
       </c>
-      <c r="H2" s="14">
+      <c r="I2" s="14">
         <v>42891</v>
       </c>
-      <c r="I2" s="14">
+      <c r="J2" s="14">
         <v>42922</v>
       </c>
-      <c r="J2" s="14">
+      <c r="K2" s="14">
         <v>42953</v>
       </c>
-      <c r="K2" s="14">
+      <c r="L2" s="14">
         <v>42984</v>
       </c>
-      <c r="L2" s="14">
+      <c r="M2" s="14">
         <v>43015</v>
       </c>
-      <c r="M2" s="14">
+      <c r="N2" s="14">
         <v>43046</v>
       </c>
-      <c r="N2" s="15">
+      <c r="O2" s="15">
         <v>43077</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:20" ht="15">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
@@ -10265,21 +10293,24 @@
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
-      <c r="N3" s="19"/>
+      <c r="N3" s="18"/>
       <c r="O3" s="19"/>
-    </row>
-    <row r="4" spans="1:19" ht="15">
-      <c r="A4" s="67" t="s">
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:20" ht="15">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="76">
+      <c r="C4" s="20"/>
+      <c r="D4" s="76">
         <v>1000</v>
       </c>
-      <c r="D4" s="85">
+      <c r="E4" s="85">
         <v>1500</v>
       </c>
-      <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
@@ -10288,21 +10319,24 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
+      <c r="N4" s="22"/>
       <c r="O4" s="23"/>
-    </row>
-    <row r="5" spans="1:19" ht="15">
-      <c r="A5" s="67" t="s">
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" spans="1:20" ht="15">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="76">
+      <c r="C5" s="20"/>
+      <c r="D5" s="76">
         <v>200</v>
       </c>
-      <c r="D5" s="85">
+      <c r="E5" s="85">
         <v>100</v>
       </c>
-      <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -10311,21 +10345,24 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="23"/>
-    </row>
-    <row r="6" spans="1:19" ht="15">
-      <c r="A6" s="68" t="s">
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:20" ht="15">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="76">
+      <c r="C6" s="71"/>
+      <c r="D6" s="76">
         <v>13</v>
       </c>
-      <c r="D6" s="85">
+      <c r="E6" s="85">
         <v>10</v>
       </c>
-      <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
@@ -10334,25 +10371,28 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="23"/>
-      <c r="P6" s="26">
+      <c r="P6" s="23"/>
+      <c r="Q6" s="26">
         <v>0</v>
       </c>
-      <c r="Q6" s="26"/>
-    </row>
-    <row r="7" spans="1:19" ht="15">
-      <c r="A7" s="68" t="s">
+      <c r="R6" s="26"/>
+    </row>
+    <row r="7" spans="1:20" ht="15">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="76">
+      <c r="C7" s="71"/>
+      <c r="D7" s="76">
         <v>2</v>
       </c>
-      <c r="D7" s="85">
+      <c r="E7" s="85">
         <v>5</v>
       </c>
-      <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
@@ -10361,28 +10401,31 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
+      <c r="N7" s="22"/>
       <c r="O7" s="23"/>
-      <c r="P7" s="26">
+      <c r="P7" s="23"/>
+      <c r="Q7" s="26">
         <v>2.6592682899303867E-6</v>
       </c>
-      <c r="Q7" s="26"/>
-      <c r="S7" s="1" t="s">
+      <c r="R7" s="26"/>
+      <c r="T7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15">
-      <c r="A8" s="68" t="s">
+    <row r="8" spans="1:20" ht="15">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="76">
+      <c r="C8" s="25"/>
+      <c r="D8" s="76">
         <v>-300</v>
       </c>
-      <c r="D8" s="85">
+      <c r="E8" s="85">
         <v>-340</v>
       </c>
-      <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
@@ -10391,25 +10434,28 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="23"/>
+      <c r="N8" s="22"/>
       <c r="O8" s="23"/>
-      <c r="P8" s="26">
+      <c r="P8" s="23"/>
+      <c r="Q8" s="26">
         <v>-0.49173576071142144</v>
       </c>
-      <c r="Q8" s="26"/>
-    </row>
-    <row r="9" spans="1:19" ht="15">
-      <c r="A9" s="68" t="s">
+      <c r="R8" s="26"/>
+    </row>
+    <row r="9" spans="1:20" ht="15">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="76">
+      <c r="C9" s="27"/>
+      <c r="D9" s="76">
         <v>-400</v>
       </c>
-      <c r="D9" s="85">
+      <c r="E9" s="85">
         <v>-600</v>
       </c>
-      <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -10418,25 +10464,28 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
+      <c r="N9" s="22"/>
       <c r="O9" s="23"/>
-      <c r="P9" s="26">
+      <c r="P9" s="23"/>
+      <c r="Q9" s="26">
         <v>-0.43448354124208838</v>
       </c>
-      <c r="Q9" s="26"/>
-    </row>
-    <row r="10" spans="1:19" ht="15">
-      <c r="A10" s="68" t="s">
+      <c r="R9" s="26"/>
+    </row>
+    <row r="10" spans="1:20" ht="15">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="76">
+      <c r="C10" s="27"/>
+      <c r="D10" s="76">
         <v>-50</v>
       </c>
-      <c r="D10" s="85">
+      <c r="E10" s="85">
         <v>-60</v>
       </c>
-      <c r="E10" s="22"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
@@ -10445,27 +10494,27 @@
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
+      <c r="N10" s="22"/>
       <c r="O10" s="23"/>
-      <c r="P10" s="26">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="26">
         <v>-6.3266777258843654E-4</v>
       </c>
-      <c r="Q10" s="26"/>
-    </row>
-    <row r="11" spans="1:19" ht="15">
-      <c r="A11" s="28" t="s">
+      <c r="R10" s="26"/>
+    </row>
+    <row r="11" spans="1:20" ht="15">
+      <c r="B11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30">
-        <f>SUM(C12:C26)</f>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30">
+        <f>SUM(D12:D26)</f>
         <v>-60</v>
       </c>
-      <c r="D11" s="49">
-        <f>SUM(D12:D26)</f>
+      <c r="E11" s="49">
+        <f>SUM(E12:E26)</f>
         <v>-93</v>
       </c>
-      <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
@@ -10474,25 +10523,28 @@
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="26">
+      <c r="N11" s="22"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="26">
         <v>-0.14162906085246563</v>
       </c>
-      <c r="Q11" s="26"/>
-    </row>
-    <row r="12" spans="1:19" ht="15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="70" t="s">
+      <c r="R11" s="26"/>
+    </row>
+    <row r="12" spans="1:20" ht="15">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="76">
+      <c r="D12" s="76">
         <v>-15</v>
       </c>
-      <c r="D12" s="85">
+      <c r="E12" s="85">
         <v>-20</v>
       </c>
-      <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
@@ -10501,28 +10553,31 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
+      <c r="N12" s="22"/>
       <c r="O12" s="23"/>
-      <c r="P12" s="26">
+      <c r="P12" s="23"/>
+      <c r="Q12" s="26">
         <v>-2.979692735509018E-2</v>
       </c>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="26"/>
+      <c r="S12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="71" t="s">
+    <row r="13" spans="1:20" ht="15">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="76">
+      <c r="D13" s="76">
         <v>-1</v>
       </c>
-      <c r="D13" s="85">
+      <c r="E13" s="85">
         <v>-2</v>
       </c>
-      <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
@@ -10531,25 +10586,28 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
+      <c r="N13" s="22"/>
       <c r="O13" s="23"/>
-      <c r="P13" s="26">
+      <c r="P13" s="23"/>
+      <c r="Q13" s="26">
         <v>0</v>
       </c>
-      <c r="Q13" s="26"/>
-    </row>
-    <row r="14" spans="1:19" ht="15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="71" t="s">
+      <c r="R13" s="26"/>
+    </row>
+    <row r="14" spans="1:20" ht="15">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="76">
+      <c r="D14" s="76">
         <v>-10</v>
       </c>
-      <c r="D14" s="85">
+      <c r="E14" s="85">
         <v>-15</v>
       </c>
-      <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -10558,25 +10616,28 @@
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
+      <c r="N14" s="22"/>
       <c r="O14" s="23"/>
-      <c r="P14" s="26">
+      <c r="P14" s="23"/>
+      <c r="Q14" s="26">
         <v>0</v>
       </c>
-      <c r="Q14" s="26"/>
-    </row>
-    <row r="15" spans="1:19" ht="15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="71" t="s">
+      <c r="R14" s="26"/>
+    </row>
+    <row r="15" spans="1:20" ht="15">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="76">
+      <c r="D15" s="76">
         <v>-4</v>
       </c>
-      <c r="D15" s="85">
+      <c r="E15" s="85">
         <v>-7</v>
       </c>
-      <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
@@ -10585,26 +10646,29 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
+      <c r="N15" s="22"/>
       <c r="O15" s="23"/>
-      <c r="P15" s="26">
+      <c r="P15" s="23"/>
+      <c r="Q15" s="26">
         <v>-2.5429222642884393E-2</v>
       </c>
-      <c r="Q15" s="26"/>
-    </row>
-    <row r="16" spans="1:19" ht="15">
-      <c r="A16" s="36"/>
-      <c r="B16" s="72" t="s">
+      <c r="R15" s="26"/>
+    </row>
+    <row r="16" spans="1:20" ht="15">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="77">
+      <c r="D16" s="77">
         <v>-1</v>
       </c>
-      <c r="D16" s="86">
+      <c r="E16" s="86">
         <v>-2</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="49"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="49"/>
       <c r="H16" s="49"/>
       <c r="I16" s="49"/>
@@ -10612,25 +10676,28 @@
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
       <c r="M16" s="49"/>
-      <c r="N16" s="69"/>
+      <c r="N16" s="49"/>
       <c r="O16" s="69"/>
-      <c r="P16" s="26">
+      <c r="P16" s="69"/>
+      <c r="Q16" s="26">
         <v>-4.2501025324421004E-3</v>
       </c>
-      <c r="Q16" s="26"/>
-    </row>
-    <row r="17" spans="1:19" ht="15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="70" t="s">
+      <c r="R16" s="26"/>
+    </row>
+    <row r="17" spans="1:20" ht="15">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="77">
+      <c r="D17" s="77">
         <v>-2</v>
       </c>
-      <c r="D17" s="86">
+      <c r="E17" s="86">
         <v>-3</v>
       </c>
-      <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -10639,25 +10706,28 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
+      <c r="N17" s="22"/>
       <c r="O17" s="23"/>
-      <c r="P17" s="26">
+      <c r="P17" s="23"/>
+      <c r="Q17" s="26">
         <v>-4.341726596175724E-3</v>
       </c>
-      <c r="Q17" s="26"/>
-    </row>
-    <row r="18" spans="1:19" ht="15">
-      <c r="A18" s="24"/>
-      <c r="B18" s="70" t="s">
+      <c r="R17" s="26"/>
+    </row>
+    <row r="18" spans="1:20" ht="15">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="77">
+      <c r="D18" s="77">
         <v>-9</v>
       </c>
-      <c r="D18" s="86">
+      <c r="E18" s="86">
         <v>-4</v>
       </c>
-      <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -10666,25 +10736,28 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
+      <c r="N18" s="22"/>
       <c r="O18" s="23"/>
-      <c r="P18" s="26">
+      <c r="P18" s="23"/>
+      <c r="Q18" s="26">
         <v>-2.123082559628277E-4</v>
       </c>
-      <c r="Q18" s="26"/>
-    </row>
-    <row r="19" spans="1:19" ht="15">
-      <c r="A19" s="24"/>
-      <c r="B19" s="70" t="s">
+      <c r="R18" s="26"/>
+    </row>
+    <row r="19" spans="1:20" ht="15">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="77">
+      <c r="D19" s="77">
         <v>-1</v>
       </c>
-      <c r="D19" s="86">
+      <c r="E19" s="86">
         <v>-5</v>
       </c>
-      <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
@@ -10693,25 +10766,28 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
-      <c r="N19" s="23"/>
+      <c r="N19" s="22"/>
       <c r="O19" s="23"/>
-      <c r="P19" s="26">
+      <c r="P19" s="23"/>
+      <c r="Q19" s="26">
         <v>-2.5017717625085411E-4</v>
       </c>
-      <c r="Q19" s="26"/>
-    </row>
-    <row r="20" spans="1:19" ht="15">
-      <c r="A20" s="24"/>
-      <c r="B20" s="70" t="s">
+      <c r="R19" s="26"/>
+    </row>
+    <row r="20" spans="1:20" ht="15">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="77">
+      <c r="D20" s="77">
         <v>-5</v>
       </c>
-      <c r="D20" s="86">
+      <c r="E20" s="86">
         <v>-7</v>
       </c>
-      <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
@@ -10720,25 +10796,28 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
+      <c r="N20" s="22"/>
       <c r="O20" s="23"/>
-      <c r="P20" s="26">
+      <c r="P20" s="23"/>
+      <c r="Q20" s="26">
         <v>-9.6554053810461802E-4</v>
       </c>
-      <c r="Q20" s="26"/>
-    </row>
-    <row r="21" spans="1:19" ht="15">
-      <c r="A21" s="24"/>
-      <c r="B21" s="70" t="s">
+      <c r="R20" s="26"/>
+    </row>
+    <row r="21" spans="1:20" ht="15">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="77">
+      <c r="D21" s="77">
         <v>-7</v>
       </c>
-      <c r="D21" s="86">
+      <c r="E21" s="86">
         <v>-8</v>
       </c>
-      <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
@@ -10747,25 +10826,28 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
+      <c r="N21" s="22"/>
       <c r="O21" s="23"/>
-      <c r="P21" s="26">
+      <c r="P21" s="23"/>
+      <c r="Q21" s="26">
         <v>-7.6051071431988311E-3</v>
       </c>
-      <c r="Q21" s="26"/>
-    </row>
-    <row r="22" spans="1:19" ht="15">
-      <c r="A22" s="24"/>
-      <c r="B22" s="70" t="s">
+      <c r="R21" s="26"/>
+    </row>
+    <row r="22" spans="1:20" ht="15">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="77">
+      <c r="D22" s="77">
         <v>-1</v>
       </c>
-      <c r="D22" s="86">
+      <c r="E22" s="86">
         <v>-2</v>
       </c>
-      <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
@@ -10774,25 +10856,28 @@
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
-      <c r="N22" s="23"/>
+      <c r="N22" s="22"/>
       <c r="O22" s="23"/>
-      <c r="P22" s="26">
+      <c r="P22" s="23"/>
+      <c r="Q22" s="26">
         <v>-3.8252749237722315E-3</v>
       </c>
-      <c r="Q22" s="26"/>
-    </row>
-    <row r="23" spans="1:19" ht="15">
-      <c r="A23" s="24"/>
-      <c r="B23" s="70" t="s">
+      <c r="R22" s="26"/>
+    </row>
+    <row r="23" spans="1:20" ht="15">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="77">
+      <c r="D23" s="77">
         <v>-1</v>
       </c>
-      <c r="D23" s="86">
+      <c r="E23" s="86">
         <v>-3</v>
       </c>
-      <c r="E23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
@@ -10801,25 +10886,28 @@
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
-      <c r="N23" s="23"/>
+      <c r="N23" s="22"/>
       <c r="O23" s="23"/>
-      <c r="P23" s="26">
+      <c r="P23" s="23"/>
+      <c r="Q23" s="26">
         <v>-1.4790990837380694E-3</v>
       </c>
-      <c r="Q23" s="26"/>
-    </row>
-    <row r="24" spans="1:19" ht="15">
-      <c r="A24" s="24"/>
-      <c r="B24" s="70" t="s">
+      <c r="R23" s="26"/>
+    </row>
+    <row r="24" spans="1:20" ht="15">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="77">
+      <c r="D24" s="77">
         <v>-1</v>
       </c>
-      <c r="D24" s="86">
+      <c r="E24" s="86">
         <v>-2</v>
       </c>
-      <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
@@ -10828,28 +10916,31 @@
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
-      <c r="N24" s="23"/>
+      <c r="N24" s="22"/>
       <c r="O24" s="23"/>
-      <c r="P24" s="26">
+      <c r="P24" s="23"/>
+      <c r="Q24" s="26">
         <v>-4.0438984600723801E-3</v>
       </c>
-      <c r="Q24" s="26"/>
-      <c r="S24" s="38">
+      <c r="R24" s="26"/>
+      <c r="T24" s="38">
         <v>233826739</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15">
-      <c r="A25" s="24"/>
-      <c r="B25" s="70" t="s">
+    <row r="25" spans="1:20" ht="15">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="77">
+      <c r="D25" s="77">
         <v>-1</v>
       </c>
-      <c r="D25" s="86">
+      <c r="E25" s="86">
         <v>-4</v>
       </c>
-      <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -10858,25 +10949,28 @@
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
-      <c r="N25" s="23"/>
+      <c r="N25" s="22"/>
       <c r="O25" s="23"/>
-      <c r="P25" s="26">
+      <c r="P25" s="23"/>
+      <c r="Q25" s="26">
         <v>-5.492436242119933E-2</v>
       </c>
-      <c r="Q25" s="26"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A26" s="33"/>
-      <c r="B26" s="73" t="s">
+      <c r="R25" s="26"/>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="78">
+      <c r="D26" s="78">
         <v>-1</v>
       </c>
-      <c r="D26" s="87">
+      <c r="E26" s="87">
         <v>-9</v>
       </c>
-      <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
@@ -10885,33 +10979,33 @@
       <c r="K26" s="40"/>
       <c r="L26" s="40"/>
       <c r="M26" s="40"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="26">
+      <c r="N26" s="40"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="26">
         <v>-4.5079729918640231E-3</v>
       </c>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="1" t="s">
+      <c r="R26" s="26"/>
+      <c r="S26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S26" s="38">
+      <c r="T26" s="38">
         <v>143385000</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15">
-      <c r="A27" s="42" t="s">
+    <row r="27" spans="1:20" ht="15">
+      <c r="B27" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="84">
-        <f>SUM(C4:C11)</f>
+      <c r="C27" s="29"/>
+      <c r="D27" s="84">
+        <f>SUM(D4:D11)</f>
         <v>405</v>
       </c>
-      <c r="D27" s="43">
-        <f>SUM(D4:D11)</f>
+      <c r="E27" s="43">
+        <f>SUM(E4:E11)</f>
         <v>522</v>
       </c>
-      <c r="E27" s="43"/>
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
@@ -10920,20 +11014,20 @@
       <c r="K27" s="43"/>
       <c r="L27" s="43"/>
       <c r="M27" s="43"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="45"/>
-      <c r="R27" s="1" t="s">
+      <c r="N27" s="43"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="45"/>
+      <c r="S27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S27" s="38">
+      <c r="T27" s="38">
         <v>115000000</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15">
-      <c r="A28" s="24"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
+    <row r="28" spans="1:20" ht="15">
+      <c r="B28" s="24"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
@@ -10943,16 +11037,16 @@
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="31"/>
-    </row>
-    <row r="29" spans="1:19" ht="15">
-      <c r="A29" s="47" t="s">
+      <c r="N28" s="22"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="31"/>
+    </row>
+    <row r="29" spans="1:20" ht="15">
+      <c r="B29" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
@@ -10962,21 +11056,24 @@
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="31"/>
-    </row>
-    <row r="30" spans="1:19" ht="15">
-      <c r="A30" s="68" t="s">
+      <c r="N29" s="22"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="31"/>
+    </row>
+    <row r="30" spans="1:20" ht="15">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="76">
+      <c r="C30" s="27"/>
+      <c r="D30" s="76">
         <v>-13</v>
       </c>
-      <c r="D30" s="85">
+      <c r="E30" s="85">
         <v>-120</v>
       </c>
-      <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -10985,21 +11082,24 @@
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="31"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A31" s="74" t="s">
+      <c r="N30" s="22"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="31"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="82">
+      <c r="C31" s="39"/>
+      <c r="D31" s="82">
         <v>-2</v>
       </c>
-      <c r="D31" s="88">
+      <c r="E31" s="88">
         <v>0</v>
       </c>
-      <c r="E31" s="34"/>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
       <c r="H31" s="34"/>
@@ -11008,23 +11108,23 @@
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="35"/>
-    </row>
-    <row r="32" spans="1:19" ht="15">
-      <c r="A32" s="42" t="s">
+      <c r="N31" s="34"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="35"/>
+    </row>
+    <row r="32" spans="1:20" ht="15">
+      <c r="B32" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30">
-        <f>SUM(C30:C31)</f>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30">
+        <f>SUM(D30:D31)</f>
         <v>-15</v>
       </c>
-      <c r="D32" s="49">
-        <f>SUM(D30:D31)</f>
+      <c r="E32" s="49">
+        <f>SUM(E30:E31)</f>
         <v>-120</v>
       </c>
-      <c r="E32" s="49"/>
       <c r="F32" s="49"/>
       <c r="G32" s="49"/>
       <c r="H32" s="49"/>
@@ -11033,14 +11133,14 @@
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
       <c r="M32" s="49"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="51"/>
-    </row>
-    <row r="33" spans="1:15" ht="15">
-      <c r="A33" s="24"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="51"/>
+    </row>
+    <row r="33" spans="1:16" ht="15">
+      <c r="B33" s="24"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
@@ -11050,16 +11150,16 @@
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="31"/>
-    </row>
-    <row r="34" spans="1:15" ht="15">
-      <c r="A34" s="47" t="s">
+      <c r="N33" s="22"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="31"/>
+    </row>
+    <row r="34" spans="1:16" ht="15">
+      <c r="B34" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
@@ -11069,21 +11169,24 @@
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="31"/>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A35" s="68" t="s">
+      <c r="N34" s="22"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="31"/>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="78">
+      <c r="C35" s="32"/>
+      <c r="D35" s="78">
         <v>0</v>
       </c>
-      <c r="D35" s="87">
+      <c r="E35" s="87">
         <v>0</v>
       </c>
-      <c r="E35" s="40"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -11092,21 +11195,24 @@
       <c r="K35" s="40"/>
       <c r="L35" s="40"/>
       <c r="M35" s="40"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="35"/>
-    </row>
-    <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="81" t="s">
+      <c r="N35" s="40"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="35"/>
+    </row>
+    <row r="36" spans="1:16" ht="15">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="76">
+      <c r="C36" s="29"/>
+      <c r="D36" s="76">
         <v>100</v>
       </c>
-      <c r="D36" s="85">
+      <c r="E36" s="85">
         <v>30</v>
       </c>
-      <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
@@ -11115,22 +11221,25 @@
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="31"/>
-    </row>
-    <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="75" t="s">
+      <c r="N36" s="22"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="31"/>
+    </row>
+    <row r="37" spans="1:16" ht="15">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="76">
+      <c r="C37" s="52"/>
+      <c r="D37" s="76">
         <v>5</v>
       </c>
-      <c r="D37" s="85">
+      <c r="E37" s="85">
         <v>10</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="22"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
@@ -11138,21 +11247,24 @@
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="31"/>
-    </row>
-    <row r="38" spans="1:15" ht="15">
-      <c r="A38" s="68" t="s">
+      <c r="N37" s="22"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="31"/>
+    </row>
+    <row r="38" spans="1:16" ht="15">
+      <c r="A38" s="1">
+        <v>4</v>
+      </c>
+      <c r="B38" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="76">
+      <c r="C38" s="27"/>
+      <c r="D38" s="76">
         <v>-1</v>
       </c>
-      <c r="D38" s="85">
+      <c r="E38" s="85">
         <v>1</v>
       </c>
-      <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
@@ -11161,22 +11273,25 @@
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="31"/>
-    </row>
-    <row r="39" spans="1:15" ht="15">
-      <c r="A39" s="75" t="s">
+      <c r="N38" s="22"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="31"/>
+    </row>
+    <row r="39" spans="1:16" ht="15">
+      <c r="A39" s="1">
+        <v>5</v>
+      </c>
+      <c r="B39" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="76">
+      <c r="C39" s="52"/>
+      <c r="D39" s="76">
         <v>-80</v>
       </c>
-      <c r="D39" s="85">
+      <c r="E39" s="85">
         <v>-20</v>
       </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="22"/>
+      <c r="F39" s="40"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
@@ -11184,21 +11299,24 @@
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="31"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A40" s="74" t="s">
+      <c r="N39" s="22"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="31"/>
+    </row>
+    <row r="40" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A40" s="1">
+        <v>6</v>
+      </c>
+      <c r="B40" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="78">
+      <c r="C40" s="80"/>
+      <c r="D40" s="78">
         <v>-5</v>
       </c>
-      <c r="D40" s="87">
+      <c r="E40" s="87">
         <v>-5</v>
       </c>
-      <c r="E40" s="40"/>
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
@@ -11207,23 +11325,23 @@
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="79"/>
-    </row>
-    <row r="41" spans="1:15" ht="15">
-      <c r="A41" s="42" t="s">
+      <c r="N40" s="40"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="79"/>
+    </row>
+    <row r="41" spans="1:16" ht="15">
+      <c r="B41" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="84">
-        <f>SUM(C35:C40)</f>
+      <c r="C41" s="29"/>
+      <c r="D41" s="84">
+        <f>SUM(D35:D40)</f>
         <v>19</v>
       </c>
-      <c r="D41" s="43">
-        <f>SUM(D35:D40)</f>
+      <c r="E41" s="43">
+        <f>SUM(E35:E40)</f>
         <v>16</v>
       </c>
-      <c r="E41" s="43"/>
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="43"/>
@@ -11232,14 +11350,14 @@
       <c r="K41" s="43"/>
       <c r="L41" s="43"/>
       <c r="M41" s="43"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="51"/>
-    </row>
-    <row r="42" spans="1:15" ht="15">
-      <c r="A42" s="24"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="51"/>
+    </row>
+    <row r="42" spans="1:16" ht="15">
+      <c r="B42" s="24"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
@@ -11249,23 +11367,23 @@
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="31"/>
-    </row>
-    <row r="43" spans="1:15" ht="15">
-      <c r="A43" s="24" t="s">
+      <c r="N42" s="22"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="31"/>
+    </row>
+    <row r="43" spans="1:16" ht="15">
+      <c r="B43" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="21">
-        <f>C41+C32+C27</f>
+      <c r="C43" s="27"/>
+      <c r="D43" s="21">
+        <f>D41+D32+D27</f>
         <v>409</v>
       </c>
-      <c r="D43" s="22">
-        <f>D41+D32+D27</f>
+      <c r="E43" s="22">
+        <f>E41+E32+E27</f>
         <v>418</v>
       </c>
-      <c r="E43" s="22"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
@@ -11274,14 +11392,14 @@
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="31"/>
-    </row>
-    <row r="44" spans="1:15" ht="15">
-      <c r="A44" s="24"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="31"/>
+    </row>
+    <row r="44" spans="1:16" ht="15">
+      <c r="B44" s="24"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
@@ -11291,21 +11409,24 @@
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="31"/>
-    </row>
-    <row r="45" spans="1:15" ht="15">
-      <c r="A45" s="68" t="s">
+      <c r="N44" s="22"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="31"/>
+    </row>
+    <row r="45" spans="1:16" ht="15">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="76">
+      <c r="C45" s="27"/>
+      <c r="D45" s="76">
         <v>7</v>
       </c>
-      <c r="D45" s="85">
+      <c r="E45" s="85">
         <v>7</v>
       </c>
-      <c r="E45" s="22"/>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
@@ -11314,14 +11435,14 @@
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="31"/>
-    </row>
-    <row r="46" spans="1:15" ht="15">
-      <c r="A46" s="24"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="31"/>
+    </row>
+    <row r="46" spans="1:16" ht="15">
+      <c r="B46" s="24"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
@@ -11331,22 +11452,22 @@
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="31"/>
-    </row>
-    <row r="47" spans="1:15" ht="15">
-      <c r="A47" s="24" t="s">
+      <c r="N46" s="22"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="31"/>
+    </row>
+    <row r="47" spans="1:16" ht="15">
+      <c r="B47" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="76">
+      <c r="C47" s="27"/>
+      <c r="D47" s="76">
         <v>59</v>
       </c>
-      <c r="D47" s="22">
-        <f>C48</f>
+      <c r="E47" s="22">
+        <f>D48</f>
         <v>475</v>
       </c>
-      <c r="E47" s="22"/>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
@@ -11355,21 +11476,21 @@
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="31"/>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A48" s="55" t="s">
+      <c r="N47" s="22"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="31"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B48" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="57">
+      <c r="C48" s="56"/>
+      <c r="D48" s="57">
         <v>475</v>
       </c>
-      <c r="D48" s="58">
+      <c r="E48" s="58">
         <v>900</v>
       </c>
-      <c r="E48" s="58"/>
       <c r="F48" s="58"/>
       <c r="G48" s="58"/>
       <c r="H48" s="58"/>
@@ -11378,23 +11499,21 @@
       <c r="K48" s="58"/>
       <c r="L48" s="58"/>
       <c r="M48" s="58"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="60"/>
-    </row>
-    <row r="49" spans="1:15" ht="15.75" thickTop="1">
-      <c r="A49" s="42"/>
-      <c r="B49" s="29" t="s">
+      <c r="N48" s="58"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="60"/>
+    </row>
+    <row r="49" spans="2:16" ht="15.75" thickTop="1">
+      <c r="B49" s="42"/>
+      <c r="C49" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="30">
-        <f>C43+C45+C47-C48</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="49">
+      <c r="D49" s="30">
         <f>D43+D45+D47-D48</f>
         <v>0</v>
       </c>
-      <c r="E49" s="61">
+      <c r="E49" s="49">
+        <f>E43+E45+E47-E48</f>
         <v>0</v>
       </c>
       <c r="F49" s="61">
@@ -11421,39 +11540,42 @@
       <c r="M49" s="61">
         <v>0</v>
       </c>
-      <c r="N49" s="62">
+      <c r="N49" s="61">
         <v>0</v>
       </c>
-      <c r="O49" s="51">
+      <c r="O49" s="62">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A50" s="33"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="64"/>
+      <c r="P49" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B50" s="33"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="64"/>
       <c r="F50" s="64"/>
-      <c r="G50" s="34">
-        <v>0</v>
-      </c>
+      <c r="G50" s="64"/>
       <c r="H50" s="34">
         <v>0</v>
       </c>
-      <c r="I50" s="64"/>
+      <c r="I50" s="34">
+        <v>0</v>
+      </c>
       <c r="J50" s="64"/>
       <c r="K50" s="64"/>
       <c r="L50" s="64"/>
       <c r="M50" s="64"/>
-      <c r="N50" s="65"/>
-      <c r="O50" s="66"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="C52" s="11"/>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="M53" s="11"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="66"/>
+    </row>
+    <row r="52" spans="2:16">
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="2:16">
+      <c r="N53" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.95866141699999996" right="0.20866141699999999" top="6.2992125999999996E-2" bottom="0.35433070900000002" header="0.31496062992126" footer="0.31496062992126"/>
@@ -11465,6 +11587,42 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -11489,7 +11647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:O38"/>
   <sheetViews>
@@ -11817,10 +11975,692 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>309</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>308</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>306</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>306</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>308</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>309</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>308</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>309</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>309</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>308</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>308</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>308</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D23">
+    <sortCondition ref="C2:C23"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="B1:GG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="9" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
@@ -13203,7 +14043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
@@ -13736,6 +14576,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -13746,18 +14592,12 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E33"/>
   <sheetViews>
@@ -14139,7 +14979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -14401,7 +15241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B38"/>
   <sheetViews>
@@ -14579,7 +15419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B17"/>
   <sheetViews>
@@ -14663,7 +15503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D101"/>
@@ -15545,40 +16385,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Cash Flow Application System (Add).xlsx
+++ b/Cash Flow Application System (Add).xlsx
@@ -41,7 +41,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Report-CashFlow'!$B:$C</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report-CashFlow (2)'!$B:$C</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -982,7 +982,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="9">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -10168,11 +10168,11 @@
   <dimension ref="A1:GG53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
-      <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14047,7 +14047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
@@ -14576,12 +14576,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -14592,6 +14586,12 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
